--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,24 +527,24 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -552,17 +552,17 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -585,57 +585,57 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -682,17 +682,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -719,47 +719,47 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -771,57 +771,57 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>DOCENTE4</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -833,24 +833,24 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
@@ -896,17 +896,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -949,24 +949,24 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>LEO</t>
@@ -979,27 +979,27 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1041,27 +1041,27 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1073,52 +1073,52 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1135,24 +1135,24 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1202,19 +1202,19 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1227,22 +1227,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
@@ -1313,14 +1313,14 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
@@ -1343,22 +1343,22 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -1385,47 +1385,47 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1437,57 +1437,57 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1499,57 +1499,57 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1561,14 +1561,14 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -1581,14 +1581,14 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1619,52 +1619,52 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr"/>
@@ -1687,47 +1687,47 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1739,52 +1739,52 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1816,42 +1816,42 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1863,57 +1863,57 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1945,14 +1945,14 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -1965,12 +1965,12 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1993,17 +1993,17 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -2076,22 +2076,22 @@
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2123,32 +2123,32 @@
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -2185,37 +2185,37 @@
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -2242,42 +2242,42 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2424,16 +2424,16 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr"/>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>3A</t>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -2458,15 +2458,15 @@
       <c r="N2" s="1" t="inlineStr"/>
       <c r="O2" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2476,68 +2476,72 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr"/>
+      <c r="N3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr"/>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr"/>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2547,7 +2551,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -2557,7 +2561,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -2582,18 +2586,18 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr"/>
@@ -2604,15 +2608,19 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2637,27 +2645,27 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr"/>
@@ -2679,15 +2687,19 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="Q5" s="1" t="inlineStr">
         <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2697,24 +2709,20 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2722,45 +2730,49 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr"/>
       <c r="K6" s="1" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr"/>
-      <c r="N6" s="1" t="inlineStr"/>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3A</t>
         </is>
       </c>
     </row>
@@ -2772,23 +2784,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr"/>
@@ -2814,7 +2822,11 @@
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr"/>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2822,7 +2834,7 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr"/>
@@ -2833,61 +2845,61 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2898,61 +2910,61 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t>3A</t>
@@ -2960,7 +2972,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr"/>
@@ -2983,62 +2995,54 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -3061,72 +3065,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr"/>
@@ -3139,34 +3135,30 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
           <t>2B</t>
         </is>
       </c>
+      <c r="G12" s="2" t="inlineStr"/>
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>3A</t>
@@ -3174,7 +3166,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -3194,18 +3186,18 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
@@ -3221,24 +3213,16 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
@@ -3254,23 +3238,31 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="Q13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3289,11 +3281,7 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3305,11 +3293,7 @@
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="H14" s="3" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
           <t>3A</t>
@@ -3327,13 +3311,21 @@
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="Q14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3344,71 +3336,71 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
           <t>5A</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="Q15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3429,32 +3421,32 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -3471,7 +3463,7 @@
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
@@ -3481,7 +3473,7 @@
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr"/>
@@ -3494,14 +3486,14 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3509,37 +3501,37 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr"/>
@@ -3556,7 +3548,7 @@
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr"/>
@@ -3569,52 +3561,52 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr"/>
@@ -3626,12 +3618,12 @@
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr"/>
@@ -3644,14 +3636,14 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3668,10 +3660,14 @@
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -3679,7 +3675,11 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr">
@@ -3687,16 +3687,8 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr"/>
       <c r="Q19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3707,59 +3699,59 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
           <t>1B</t>
         </is>
       </c>
+      <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="J20" s="4" t="inlineStr"/>
       <c r="K20" s="4" t="inlineStr"/>
       <c r="L20" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr"/>
       <c r="Q20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3780,58 +3772,58 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="P21" s="4" t="inlineStr">
@@ -3849,73 +3841,73 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr">
         <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr"/>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -3928,14 +3920,14 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3943,54 +3935,54 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr"/>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr"/>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr"/>
@@ -4003,72 +3995,68 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr"/>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="Q24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -4088,49 +4076,49 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr"/>
       <c r="N25" s="4" t="inlineStr"/>
       <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="P25" s="4" t="inlineStr"/>
       <c r="Q25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4149,24 +4137,28 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
           <t>4A</t>
@@ -4175,26 +4167,22 @@
       <c r="K26" s="5" t="inlineStr"/>
       <c r="L26" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr"/>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="P26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -4204,7 +4192,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -4214,12 +4202,12 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
@@ -4240,40 +4228,32 @@
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr"/>
       <c r="L27" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="P27" s="5" t="inlineStr"/>
+      <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
@@ -4293,74 +4273,66 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="Q28" s="5" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
@@ -4368,17 +4340,17 @@
           <t>VEN4</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
           <t>BUCO</t>
         </is>
       </c>
+      <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr">
         <is>
           <t>2B</t>
@@ -4386,60 +4358,56 @@
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="P29" s="5" t="inlineStr"/>
+      <c r="Q29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
@@ -4447,66 +4415,66 @@
           <t>VEN5</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr"/>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr"/>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr"/>
       <c r="M30" s="5" t="inlineStr"/>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr"/>
+      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,37 +527,37 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE4</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,57 +585,57 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -647,14 +647,14 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -677,7 +677,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -719,14 +719,14 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -734,7 +734,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -781,47 +781,47 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -833,14 +833,14 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -848,7 +848,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -896,37 +896,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -959,17 +959,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -979,27 +979,27 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>MOTORIA</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>DOCENTE3</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1073,57 +1073,57 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1135,57 +1135,57 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1197,14 +1197,14 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1217,32 +1217,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,24 +1255,24 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1285,22 +1285,22 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1323,47 +1323,47 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -1467,27 +1467,27 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1499,57 +1499,57 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1619,27 +1619,27 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
@@ -1697,32 +1697,32 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -1836,22 +1836,22 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1863,14 +1863,14 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1878,42 +1878,42 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1935,42 +1935,42 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1983,27 +1983,27 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,14 +2041,14 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
@@ -2071,27 +2071,27 @@
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2103,57 +2103,57 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2170,52 +2170,52 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -2242,42 +2242,42 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2351,32 +2351,32 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -2411,7 +2411,11 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>1B</t>
@@ -2419,7 +2423,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -2436,35 +2440,31 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr"/>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr"/>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3A</t>
         </is>
       </c>
     </row>
@@ -2476,53 +2476,49 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr"/>
@@ -2537,11 +2533,7 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="Q3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2551,12 +2543,12 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -2576,51 +2568,39 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
           <t>3A</t>
         </is>
       </c>
+      <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr">
+      <c r="N4" s="1" t="inlineStr"/>
+      <c r="O4" s="1" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="Q4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2640,43 +2620,43 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr"/>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr"/>
@@ -2685,21 +2665,9 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="O5" s="1" t="inlineStr"/>
+      <c r="P5" s="1" t="inlineStr"/>
+      <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2712,69 +2680,61 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr"/>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr"/>
+      <c r="P6" s="1" t="inlineStr"/>
+      <c r="Q6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2784,41 +2744,49 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr"/>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr"/>
@@ -2827,16 +2795,8 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="O7" s="1" t="inlineStr"/>
+      <c r="P7" s="1" t="inlineStr"/>
       <c r="Q7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2845,7 +2805,11 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
           <t>1A</t>
@@ -2860,44 +2824,40 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr"/>
@@ -2920,59 +2880,51 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr"/>
@@ -2993,11 +2945,7 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3008,46 +2956,42 @@
           <t>2B</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr"/>
@@ -3060,69 +3004,61 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>1B</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr"/>
@@ -3135,69 +3071,61 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
@@ -3210,7 +3138,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
@@ -3225,7 +3153,11 @@
           <t>2A</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
           <t>3A</t>
@@ -3233,7 +3165,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3243,27 +3175,23 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3271,54 +3199,54 @@
           <t>MER1</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr"/>
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>1A</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
@@ -3334,71 +3262,63 @@
           <t>MER2</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>1A</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3431,44 +3351,36 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
           <t>4A</t>
         </is>
       </c>
+      <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
@@ -3489,11 +3401,7 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3511,44 +3419,40 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr"/>
@@ -3561,69 +3465,61 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr"/>
@@ -3639,57 +3535,57 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O19" s="3" t="inlineStr"/>
       <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3697,62 +3593,62 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr"/>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="P20" s="4" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr"/>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -3760,78 +3656,66 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="Q21" s="4" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -3839,77 +3723,65 @@
           <t>GIO3</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="P22" s="4" t="inlineStr"/>
       <c r="Q22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3920,71 +3792,63 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr"/>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="P23" s="4" t="inlineStr"/>
       <c r="Q23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3995,67 +3859,63 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr"/>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="P24" s="4" t="inlineStr"/>
       <c r="Q24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4074,50 +3934,50 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr"/>
       <c r="Q25" s="4" t="inlineStr"/>
     </row>
@@ -4129,47 +3989,43 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr"/>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
+      <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr">
         <is>
           <t>4B</t>
@@ -4178,10 +4034,14 @@
       <c r="N26" s="5" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
@@ -4192,67 +4052,63 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr"/>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="L27" s="5" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr"/>
       <c r="N27" s="5" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
@@ -4263,14 +4119,14 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4278,58 +4134,46 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="L28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr"/>
       <c r="O28" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4347,10 +4191,14 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
           <t>2B</t>
@@ -4358,55 +4206,43 @@
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
           <t>2A</t>
         </is>
       </c>
+      <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr"/>
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P29" s="5" t="inlineStr"/>
       <c r="Q29" s="5" t="inlineStr"/>
     </row>
     <row r="30">
@@ -4425,10 +4261,14 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr"/>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -4439,41 +4279,37 @@
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
           <t>3A</t>
         </is>
       </c>
+      <c r="I30" s="5" t="inlineStr"/>
       <c r="J30" s="5" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="K30" s="5" t="inlineStr"/>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="M30" s="5" t="inlineStr"/>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -537,17 +537,17 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -595,47 +595,47 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -647,17 +647,17 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
           <t>LEO</t>
@@ -682,22 +682,22 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -709,17 +709,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -729,14 +729,14 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -749,12 +749,12 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -811,12 +811,12 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -853,32 +853,32 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -896,47 +896,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -949,34 +949,34 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -984,17 +984,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1021,47 +1021,47 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1073,44 +1073,44 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1135,57 +1135,57 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1207,42 +1207,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,42 +1255,42 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1313,57 +1313,57 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1504,52 +1504,52 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1624,24 +1624,24 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE4</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1649,12 +1649,12 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1677,57 +1677,57 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -1759,32 +1759,32 @@
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1811,14 +1811,14 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1831,27 +1831,27 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1878,42 +1878,42 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1935,14 +1935,14 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1955,12 +1955,12 @@
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1983,32 +1983,32 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
@@ -2041,57 +2041,57 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -2113,47 +2113,47 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2165,57 +2165,57 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2232,17 +2232,17 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2411,11 +2411,7 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>1B</t>
@@ -2428,7 +2424,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
@@ -2440,33 +2436,37 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr"/>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr"/>
-      <c r="N2" s="1" t="inlineStr"/>
-      <c r="O2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2474,11 +2474,7 @@
           <t>LUN2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
           <t>1B</t>
@@ -2486,19 +2482,15 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr"/>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr">
         <is>
@@ -2507,33 +2499,41 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr"/>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr"/>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr"/>
-      <c r="N3" s="1" t="inlineStr"/>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr"/>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2543,61 +2543,61 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr"/>
-      <c r="J4" s="1" t="inlineStr"/>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr"/>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
@@ -2610,24 +2610,16 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2635,12 +2627,12 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
@@ -2651,7 +2643,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -2665,8 +2657,16 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr"/>
-      <c r="P5" s="1" t="inlineStr"/>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2680,34 +2680,26 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr"/>
@@ -2718,7 +2710,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -2732,8 +2724,16 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="O6" s="1" t="inlineStr"/>
-      <c r="P6" s="1" t="inlineStr"/>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="Q6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2747,14 +2747,10 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
@@ -2765,23 +2761,23 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -2792,10 +2788,14 @@
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="P7" s="1" t="inlineStr"/>
       <c r="Q7" s="1" t="inlineStr"/>
     </row>
@@ -2805,11 +2805,7 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
           <t>1A</t>
@@ -2817,21 +2813,21 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4A</t>
@@ -2841,26 +2837,30 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2868,63 +2868,63 @@
           <t>MAR2</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr"/>
@@ -2945,36 +2945,36 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr"/>
@@ -2983,15 +2983,15 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr"/>
@@ -3004,10 +3004,14 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
@@ -3021,44 +3025,40 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr"/>
@@ -3071,24 +3071,28 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -3096,14 +3100,10 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -3120,12 +3120,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
@@ -3145,53 +3145,53 @@
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr">
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="Q13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3199,10 +3199,14 @@
           <t>MER1</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -3226,14 +3230,10 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
@@ -3246,7 +3246,7 @@
       <c r="N14" s="3" t="inlineStr"/>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
@@ -3262,10 +3262,14 @@
           <t>MER2</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -3275,27 +3279,23 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -3313,12 +3313,12 @@
       <c r="N15" s="3" t="inlineStr"/>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3331,14 +3331,14 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3346,36 +3346,40 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr"/>
       <c r="O16" s="3" t="inlineStr">
@@ -3383,11 +3387,7 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="P16" s="3" t="inlineStr"/>
       <c r="Q16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3401,7 +3401,11 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3429,32 +3433,28 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="N17" s="3" t="inlineStr"/>
       <c r="O17" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="P17" s="3" t="inlineStr"/>
       <c r="Q17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3468,7 +3468,11 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3477,22 +3481,22 @@
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -3503,7 +3507,7 @@
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
@@ -3514,14 +3518,10 @@
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr"/>
       <c r="Q18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3579,13 +3579,13 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="Q19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3593,7 +3593,11 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
           <t>1A</t>
@@ -3604,7 +3608,11 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
@@ -3614,12 +3622,12 @@
       <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -3634,19 +3642,11 @@
       </c>
       <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr">
         <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,11 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>1B</t>
@@ -3664,10 +3668,14 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3675,47 +3683,39 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr"/>
       <c r="I21" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="O21" s="4" t="inlineStr"/>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -3723,17 +3723,17 @@
           <t>GIO3</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D22" s="4" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3746,14 +3746,14 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
           <t>COPERTURA</t>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -3772,16 +3772,16 @@
       <c r="L22" s="4" t="inlineStr"/>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="N22" s="4" t="inlineStr"/>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="Q22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3803,14 +3803,14 @@
       <c r="D23" s="4" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
           <t>3A</t>
@@ -3823,32 +3823,32 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="O23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="P23" s="4" t="inlineStr"/>
       <c r="Q23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3859,63 +3859,63 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C24" s="4" t="inlineStr"/>
       <c r="D24" s="4" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr"/>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="Q24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3929,22 +3929,18 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="C25" s="4" t="inlineStr"/>
       <c r="D25" s="4" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3955,30 +3951,34 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="I25" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr"/>
       <c r="O25" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="P25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="Q25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3989,14 +3989,14 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4004,44 +4004,44 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="M26" s="5" t="inlineStr"/>
       <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="O26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr"/>
       <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
@@ -4052,14 +4052,14 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4067,28 +4067,32 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K27" s="5" t="inlineStr">
@@ -4101,14 +4105,10 @@
       <c r="N27" s="5" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr"/>
       <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
@@ -4129,51 +4129,51 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr"/>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr"/>
       <c r="M28" s="5" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4186,14 +4186,14 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
           <t>5A</t>
@@ -4201,30 +4201,30 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr"/>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="J29" s="5" t="inlineStr"/>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4232,15 +4232,15 @@
       </c>
       <c r="L29" s="5" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr"/>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
+      <c r="O29" s="5" t="inlineStr"/>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q29" s="5" t="inlineStr"/>
@@ -4251,66 +4251,66 @@
           <t>VEN5</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr"/>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr"/>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr"/>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,34 +527,34 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -567,12 +567,12 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,57 +585,57 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -647,22 +647,22 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -709,57 +709,57 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -771,57 +771,57 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -833,52 +833,52 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -891,52 +891,52 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -949,57 +949,57 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1011,14 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>MOTORIA</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1073,14 +1073,14 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1088,42 +1088,42 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1135,42 +1135,42 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1180,12 +1180,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1197,24 +1197,24 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,42 +1255,42 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1385,14 +1385,14 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1405,14 +1405,14 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
           <t>DOCENTE3</t>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
@@ -1457,14 +1457,14 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1692,42 +1692,42 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1739,14 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1769,14 +1769,14 @@
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1801,57 +1801,57 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1868,52 +1868,52 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
         <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1945,32 +1945,32 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1993,22 +1993,22 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,32 +2041,32 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J27" s="5" t="inlineStr">
@@ -2113,47 +2113,47 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -2170,47 +2170,47 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
@@ -2232,29 +2232,29 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>DOCENTE2</t>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
@@ -2272,12 +2272,12 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2411,62 +2411,62 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
+      <c r="C2" s="1" t="inlineStr"/>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr"/>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr"/>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr"/>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2474,66 +2474,66 @@
           <t>LUN2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr"/>
-      <c r="G3" s="1" t="inlineStr"/>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr"/>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="M3" s="1" t="inlineStr"/>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="N3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr"/>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="Q3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2543,26 +2543,34 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr"/>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
           <t>3B</t>
@@ -2571,7 +2579,7 @@
       <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -2579,22 +2587,14 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="L4" s="1" t="inlineStr"/>
       <c r="M4" s="1" t="inlineStr"/>
       <c r="N4" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="O4" s="1" t="inlineStr"/>
       <c r="P4" s="1" t="inlineStr">
         <is>
           <t>3A</t>
@@ -2610,13 +2610,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
@@ -2627,30 +2631,26 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr"/>
       <c r="M5" s="1" t="inlineStr"/>
       <c r="N5" s="1" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -2680,10 +2680,14 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
@@ -2694,44 +2698,40 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr"/>
       <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr"/>
@@ -2744,13 +2744,17 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
@@ -2761,42 +2765,38 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="J7" s="1" t="inlineStr"/>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P7" s="1" t="inlineStr"/>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="Q7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2805,17 +2805,13 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr"/>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>2A</t>
@@ -2824,43 +2820,47 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2868,66 +2868,66 @@
           <t>MAR2</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr"/>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2937,19 +2937,15 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2962,16 +2958,20 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr"/>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2980,13 +2980,13 @@
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -3004,38 +3004,38 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr"/>
@@ -3047,18 +3047,18 @@
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr"/>
@@ -3071,61 +3071,61 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr"/>
@@ -3141,54 +3141,54 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr"/>
@@ -3199,59 +3199,59 @@
           <t>MER1</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr"/>
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
       <c r="J14" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr"/>
@@ -3293,32 +3293,32 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr"/>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3346,14 +3346,14 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
@@ -3381,12 +3381,12 @@
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
+      <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr"/>
       <c r="Q16" s="3" t="inlineStr"/>
     </row>
@@ -3423,12 +3423,12 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
@@ -3448,12 +3448,12 @@
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
+      <c r="O17" s="3" t="inlineStr"/>
       <c r="P17" s="3" t="inlineStr"/>
       <c r="Q17" s="3" t="inlineStr"/>
     </row>
@@ -3478,7 +3478,11 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3496,12 +3500,12 @@
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
@@ -3516,11 +3520,7 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="O18" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="O18" s="3" t="inlineStr"/>
       <c r="P18" s="3" t="inlineStr"/>
       <c r="Q18" s="3" t="inlineStr"/>
     </row>
@@ -3535,23 +3535,27 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3559,33 +3563,29 @@
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="O19" s="3" t="inlineStr"/>
       <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3593,16 +3593,8 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3616,10 +3608,14 @@
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="4" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3642,13 +3638,17 @@
       </c>
       <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -3656,63 +3656,63 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="Q21" s="4" t="inlineStr"/>
@@ -3725,61 +3725,61 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr"/>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr"/>
-      <c r="O22" s="4" t="inlineStr"/>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -3792,61 +3792,61 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr"/>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr"/>
@@ -3862,60 +3862,60 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D24" s="4" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="P24" s="4" t="inlineStr"/>
       <c r="Q24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3926,10 +3926,14 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr"/>
       <c r="D25" s="4" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
@@ -3941,45 +3945,41 @@
           <t>2B</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H25" s="4" t="inlineStr">
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
@@ -3997,52 +3997,52 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr"/>
+      <c r="E26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="L26" s="5" t="inlineStr"/>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr"/>
-      <c r="P26" s="5" t="inlineStr"/>
-      <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -4052,14 +4052,14 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4067,24 +4067,20 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
           <t>COPERTURA</t>
@@ -4101,11 +4097,15 @@
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="N27" s="5" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P27" s="5" t="inlineStr"/>
@@ -4129,51 +4129,51 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr"/>
       <c r="M28" s="5" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4184,11 +4184,7 @@
           <t>VEN4</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B29" s="5" t="inlineStr"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>1A</t>
@@ -4211,36 +4207,40 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr"/>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="M29" s="5" t="inlineStr"/>
       <c r="N29" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr"/>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="Q29" s="5" t="inlineStr"/>
@@ -4264,53 +4264,53 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr"/>
       <c r="G30" s="5" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr"/>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J30" s="5" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L30" s="5" t="inlineStr"/>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr"/>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
           <t>1B</t>
         </is>
       </c>
+      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,12 +527,12 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -542,37 +542,37 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -595,47 +595,47 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -647,57 +647,57 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -759,7 +759,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -771,14 +771,14 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -786,22 +786,22 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -848,27 +848,27 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -969,27 +969,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1073,57 +1073,57 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1135,27 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1207,42 +1207,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1290,17 +1290,17 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1313,57 +1313,57 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1395,14 +1395,14 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -1410,22 +1410,22 @@
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1447,47 +1447,47 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1504,37 +1504,37 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -1591,22 +1591,22 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1619,29 +1619,29 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1659,12 +1659,12 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr"/>
@@ -1677,57 +1677,57 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1739,52 +1739,52 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -1831,27 +1831,27 @@
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1873,27 +1873,27 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -1945,22 +1945,22 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1983,52 +1983,52 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2051,42 +2051,42 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
@@ -2113,37 +2113,37 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2170,19 +2170,19 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -2190,32 +2190,32 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2227,57 +2227,57 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2411,62 +2411,62 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr"/>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr"/>
-      <c r="N2" s="1" t="inlineStr"/>
-      <c r="O2" s="1" t="inlineStr"/>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2480,54 +2480,54 @@
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr"/>
-      <c r="N3" s="1" t="inlineStr"/>
-      <c r="O3" s="1" t="inlineStr"/>
       <c r="P3" s="1" t="inlineStr">
         <is>
           <t>1A</t>
@@ -2543,61 +2543,61 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr"/>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr"/>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr"/>
-      <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr"/>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
@@ -2618,11 +2618,7 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
@@ -2639,32 +2635,36 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr"/>
       <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="N5" s="1" t="inlineStr"/>
       <c r="O5" s="1" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -2675,14 +2675,10 @@
           <t>LUN5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>1B</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -2698,18 +2694,22 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -2717,24 +2717,24 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="M6" s="1" t="inlineStr"/>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="N6" s="1" t="inlineStr"/>
+      <c r="O6" s="1" t="inlineStr"/>
       <c r="P6" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="Q6" s="1" t="inlineStr"/>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2742,16 +2742,8 @@
           <t>LUN6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>5A</t>
@@ -2765,39 +2757,47 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="N7" s="1" t="inlineStr"/>
+      <c r="O7" s="1" t="inlineStr"/>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr"/>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -2811,7 +2811,11 @@
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>2A</t>
@@ -2828,38 +2832,34 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
           <t>1B</t>
         </is>
       </c>
+      <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2873,8 +2873,16 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>COPERTURA</t>
@@ -2887,47 +2895,39 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2937,15 +2937,19 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2958,42 +2962,38 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
@@ -3004,14 +3004,14 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3019,46 +3019,46 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr"/>
@@ -3071,14 +3071,14 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3086,43 +3086,43 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3148,47 +3148,47 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr"/>
@@ -3199,18 +3199,26 @@
           <t>MER1</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3222,7 +3230,11 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3230,31 +3242,19 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -3264,14 +3264,14 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3279,46 +3279,46 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr"/>
       <c r="H15" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr"/>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3354,40 +3354,40 @@
           <t>2A</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
       <c r="Q16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3411,26 +3411,22 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3442,19 +3438,23 @@
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="Q17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3468,44 +3468,36 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
@@ -3520,8 +3512,16 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="Q18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3535,57 +3535,57 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="Q19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3594,58 +3594,58 @@
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q20" s="4" t="inlineStr"/>
@@ -3659,60 +3659,60 @@
       <c r="B21" s="4" t="inlineStr"/>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr"/>
       <c r="O21" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="Q21" s="4" t="inlineStr"/>
@@ -3725,63 +3725,63 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr"/>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr"/>
-      <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" s="4" t="inlineStr"/>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr"/>
       <c r="Q22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3792,63 +3792,63 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr"/>
       <c r="N23" s="4" t="inlineStr"/>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr"/>
       <c r="Q23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3867,54 +3867,54 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr"/>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
+      <c r="O24" s="4" t="inlineStr"/>
       <c r="P24" s="4" t="inlineStr"/>
       <c r="Q24" s="4" t="inlineStr"/>
     </row>
@@ -3924,17 +3924,17 @@
           <t>GIO6</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3945,39 +3945,39 @@
           <t>2B</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr"/>
       <c r="Q25" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3989,60 +3989,60 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr"/>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
+      <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr"/>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -4062,53 +4062,53 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr"/>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr"/>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr"/>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="P27" s="5" t="inlineStr"/>
       <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
@@ -4134,46 +4134,46 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr"/>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4184,7 +4184,11 @@
           <t>VEN4</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>1A</t>
@@ -4192,55 +4196,51 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr"/>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr"/>
-      <c r="K29" s="5" t="inlineStr"/>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="L29" s="5" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr"/>
       <c r="N29" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="Q29" s="5" t="inlineStr"/>
@@ -4251,15 +4251,19 @@
           <t>VEN5</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -4277,23 +4281,15 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr"/>
       <c r="K30" s="5" t="inlineStr"/>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L30" s="5" t="inlineStr"/>
       <c r="M30" s="5" t="inlineStr"/>
       <c r="N30" s="5" t="inlineStr">
         <is>
@@ -4302,15 +4298,19 @@
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,24 +527,24 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -552,12 +552,12 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -585,57 +585,57 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -657,47 +657,47 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -719,42 +719,42 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -771,57 +771,57 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -833,52 +833,52 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -891,24 +891,24 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -926,12 +926,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -949,57 +949,57 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1011,14 +1011,14 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1135,14 +1135,14 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -1155,37 +1155,37 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1197,14 +1197,14 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -1217,14 +1217,14 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
           <t>SAVINO</t>
@@ -1237,12 +1237,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1313,49 +1313,49 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1385,47 +1385,47 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1452,42 +1452,42 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1499,57 +1499,57 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1561,42 +1561,42 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -1634,37 +1634,37 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr"/>
@@ -1677,57 +1677,57 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1769,17 @@
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1816,42 +1816,42 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1878,42 +1878,42 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1930,47 +1930,47 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE4</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1988,19 +1988,19 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
           <t>SAVINO</t>
@@ -2008,27 +2008,27 @@
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,57 +2041,57 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
@@ -2118,19 +2118,19 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -2138,17 +2138,17 @@
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
@@ -2165,22 +2165,22 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
@@ -2232,19 +2232,19 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
@@ -2411,62 +2411,62 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr"/>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr"/>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr"/>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr"/>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2476,61 +2476,61 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr"/>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr"/>
+      <c r="N3" s="1" t="inlineStr"/>
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -2551,17 +2551,21 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
           <t>3A</t>
@@ -2572,32 +2576,28 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L4" s="1" t="inlineStr"/>
       <c r="M4" s="1" t="inlineStr"/>
       <c r="N4" s="1" t="inlineStr"/>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr"/>
@@ -2618,8 +2618,16 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr"/>
-      <c r="E5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2627,27 +2635,19 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -2659,12 +2659,12 @@
       <c r="N5" s="1" t="inlineStr"/>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr"/>
@@ -2675,66 +2675,66 @@
           <t>LUN5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr"/>
-      <c r="O6" s="1" t="inlineStr"/>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2742,62 +2742,62 @@
           <t>LUN6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr"/>
+      <c r="M7" s="1" t="inlineStr"/>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M7" s="1" t="inlineStr"/>
-      <c r="N7" s="1" t="inlineStr"/>
-      <c r="O7" s="1" t="inlineStr"/>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="Q7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -2807,18 +2807,18 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
@@ -2832,7 +2832,11 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -2841,7 +2845,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -2851,14 +2855,10 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
     </row>
@@ -2870,27 +2870,23 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2903,7 +2899,11 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -2912,20 +2912,20 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr"/>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
     </row>
@@ -2937,62 +2937,62 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
     </row>
@@ -3004,14 +3004,14 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3037,11 +3037,7 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3054,13 +3050,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3071,63 +3071,63 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3136,19 +3136,15 @@
           <t>MAR6</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -3161,14 +3157,10 @@
           <t>2B</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr"/>
@@ -3177,21 +3169,29 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3204,26 +3204,14 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="inlineStr">
         <is>
@@ -3242,17 +3230,29 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -3264,61 +3264,61 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3341,51 +3341,51 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr"/>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr"/>
@@ -3396,22 +3396,22 @@
           <t>MER4</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr"/>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3419,22 +3419,22 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
@@ -3447,12 +3447,12 @@
       </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr"/>
@@ -3463,18 +3463,22 @@
           <t>MER5</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3482,44 +3486,40 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr"/>
@@ -3530,21 +3530,25 @@
           <t>MER6</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -3559,30 +3563,26 @@
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr"/>
       <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q19" s="3" t="inlineStr"/>
@@ -3593,61 +3593,61 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr"/>
       <c r="Q20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3656,65 +3656,65 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr"/>
       <c r="Q21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3733,7 +3733,11 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3761,27 +3765,23 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr"/>
-      <c r="M22" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N22" s="4" t="inlineStr"/>
-      <c r="O22" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr"/>
       <c r="Q22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3792,63 +3792,63 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr"/>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr"/>
       <c r="Q23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3872,50 +3872,50 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr"/>
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="P24" s="4" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="I24" s="4" t="inlineStr"/>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr"/>
-      <c r="P24" s="4" t="inlineStr"/>
       <c r="Q24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3924,7 +3924,11 @@
           <t>GIO6</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
           <t>1A</t>
@@ -3932,52 +3936,48 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
         <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3987,62 +3987,62 @@
           <t>VEN1</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B26" s="5" t="inlineStr"/>
       <c r="C26" s="5" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -4050,63 +4050,63 @@
           <t>VEN2</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr"/>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr"/>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr"/>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr"/>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr"/>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr"/>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="Q27" s="5" t="inlineStr"/>
@@ -4122,58 +4122,58 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr"/>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>1A</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr"/>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr"/>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr"/>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4186,25 +4186,21 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr"/>
+      <c r="E29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
           <t>3A</t>
@@ -4218,7 +4214,7 @@
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
@@ -4226,16 +4222,20 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="L29" s="5" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="M29" s="5" t="inlineStr"/>
       <c r="N29" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
@@ -4256,24 +4256,16 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
@@ -4287,9 +4279,21 @@
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="J30" s="5" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr"/>
-      <c r="L30" s="5" t="inlineStr"/>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="M30" s="5" t="inlineStr"/>
       <c r="N30" s="5" t="inlineStr">
         <is>
@@ -4298,19 +4302,15 @@
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -537,27 +537,27 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -585,44 +585,44 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
           <t>DOCENTE3</t>
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -657,27 +657,27 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -833,22 +833,22 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -858,17 +858,17 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -911,27 +911,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -959,37 +959,37 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1011,34 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1088,27 +1088,27 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1145,47 +1145,47 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1202,22 +1202,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,14 +1255,14 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE4</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -1270,37 +1270,37 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1313,24 +1313,24 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -1343,27 +1343,27 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1375,57 +1375,57 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1499,32 +1499,32 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1571,27 +1571,27 @@
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -1644,22 +1644,22 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1702,32 +1702,32 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1739,57 +1739,57 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1801,22 +1801,22 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1878,42 +1878,42 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1935,42 +1935,42 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -1998,37 +1998,37 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,57 +2041,57 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2103,57 +2103,57 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I28" s="5" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>MOTORIA</t>
         </is>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>DOCENTE3</t>
         </is>
       </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2165,57 +2165,57 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2227,57 +2227,57 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>CICCIMARRA</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2426,47 +2426,47 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="1" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr"/>
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr"/>
       <c r="O2" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr"/>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="Q2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2476,30 +2476,30 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
           <t>3B</t>
@@ -2510,27 +2510,27 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr"/>
       <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr"/>
       <c r="O3" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -2553,27 +2553,23 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr"/>
@@ -2584,22 +2580,26 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr"/>
       <c r="Q4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2635,38 +2635,38 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr"/>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="O5" s="1" t="inlineStr"/>
+      <c r="P5" s="1" t="inlineStr"/>
       <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2692,48 +2692,48 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr"/>
-      <c r="N6" s="1" t="inlineStr"/>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="O6" s="1" t="inlineStr"/>
+      <c r="P6" s="1" t="inlineStr"/>
       <c r="Q6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2744,23 +2744,27 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -2768,11 +2772,15 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -2784,19 +2792,11 @@
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr"/>
+      <c r="P7" s="1" t="inlineStr"/>
       <c r="Q7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2805,17 +2805,17 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2824,17 +2824,13 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
           <t>3A</t>
         </is>
       </c>
+      <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
@@ -2848,19 +2844,23 @@
           <t>2A</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2878,55 +2878,55 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2937,63 +2937,63 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr"/>
@@ -3050,17 +3050,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O11" s="2" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3079,24 +3079,20 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -3107,24 +3103,28 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr"/>
@@ -3136,28 +3136,28 @@
           <t>MAR6</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3169,12 +3169,20 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
@@ -3182,16 +3190,8 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -3211,48 +3211,48 @@
           <t>2A</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3264,21 +3264,21 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
           <t>3A</t>
@@ -3291,34 +3291,34 @@
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3331,14 +3331,14 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3346,46 +3346,46 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>4B</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
+      <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr"/>
@@ -3396,7 +3396,11 @@
           <t>MER4</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
           <t>1A</t>
@@ -3409,12 +3413,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -3445,11 +3449,7 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="O17" s="3" t="inlineStr"/>
       <c r="P17" s="3" t="inlineStr">
         <is>
           <t>4B</t>
@@ -3463,65 +3463,65 @@
           <t>MER5</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr"/>
       <c r="Q18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3530,7 +3530,11 @@
           <t>MER6</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
           <t>1B</t>
@@ -3543,30 +3547,34 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
@@ -3575,16 +3583,8 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr"/>
       <c r="Q19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3593,62 +3593,62 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -3656,65 +3656,65 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr"/>
       <c r="Q21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3725,14 +3725,14 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3740,46 +3740,46 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr"/>
       <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" s="4" t="inlineStr"/>
-      <c r="O22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -3792,14 +3792,10 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C23" s="4" t="inlineStr"/>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3812,7 +3808,7 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -3843,10 +3839,14 @@
       <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr"/>
       <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="C24" s="4" t="inlineStr"/>
       <c r="D24" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3880,40 +3880,40 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K24" s="4" t="inlineStr"/>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="M24" s="4" t="inlineStr"/>
       <c r="N24" s="4" t="inlineStr"/>
       <c r="O24" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="Q24" s="4" t="inlineStr"/>
@@ -3929,57 +3929,57 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="C25" s="4" t="inlineStr"/>
       <c r="D25" s="4" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="M25" s="4" t="inlineStr"/>
       <c r="N25" s="4" t="inlineStr"/>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
@@ -3987,7 +3987,11 @@
           <t>VEN1</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
           <t>1A</t>
@@ -3999,50 +4003,46 @@
           <t>2A</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="G26" s="5" t="inlineStr"/>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="N26" s="5" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -4050,10 +4050,14 @@
           <t>VEN2</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
@@ -4072,41 +4076,37 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr"/>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr"/>
       <c r="M27" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="N27" s="5" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q27" s="5" t="inlineStr"/>
@@ -4119,61 +4119,61 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr"/>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr"/>
+      <c r="L28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr"/>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="N28" s="5" t="inlineStr"/>
       <c r="O28" s="5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4184,63 +4184,63 @@
           <t>VEN4</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr"/>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr"/>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr"/>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="Q29" s="5" t="inlineStr"/>
@@ -4251,47 +4251,43 @@
           <t>VEN5</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr"/>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr"/>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="M30" s="5" t="inlineStr"/>
@@ -4302,15 +4298,19 @@
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr"/>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="Q30" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,39 +527,39 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE4</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -567,12 +567,12 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,57 +585,57 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -647,17 +647,17 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MOTORIA</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -709,14 +709,14 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -729,14 +729,14 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -744,7 +744,7 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -833,14 +833,14 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -848,17 +848,17 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -891,52 +891,52 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -949,57 +949,57 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1026,37 +1026,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1073,24 +1073,24 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1103,14 +1103,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1135,14 +1135,14 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>SCHIAVONE</t>
@@ -1150,42 +1150,42 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1255,22 +1255,22 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
@@ -1318,52 +1318,52 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1405,27 +1405,27 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1437,14 +1437,14 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>SABATELLI</t>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
@@ -1499,27 +1499,27 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
           <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1581,22 +1581,22 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1619,34 +1619,34 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE4</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -1677,57 +1677,57 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE2</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
     </row>
@@ -1739,57 +1739,57 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>DOCENTE1</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1801,57 +1801,57 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1863,24 +1863,24 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>DOCENTE1</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1893,12 +1893,12 @@
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1925,37 +1925,37 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>DOCENTE4</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -2003,14 +2003,14 @@
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2051,47 +2051,47 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2103,57 +2103,57 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE3</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2165,57 +2165,57 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2227,57 +2227,57 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>DOCENTE1</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -2413,29 +2413,25 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr"/>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -2446,27 +2442,31 @@
       <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr"/>
       <c r="O2" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2476,61 +2476,61 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr"/>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr"/>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr"/>
@@ -2543,20 +2543,20 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2575,31 +2575,31 @@
       <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr"/>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr"/>
+      <c r="O4" s="1" t="inlineStr"/>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="Q4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2610,14 +2610,14 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2635,12 +2635,12 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>3B</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr"/>
+      <c r="O5" s="1" t="inlineStr"/>
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="O5" s="1" t="inlineStr"/>
-      <c r="P5" s="1" t="inlineStr"/>
       <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
@@ -2692,12 +2692,12 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>2B</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -2744,24 +2744,20 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>2A</t>
@@ -2769,12 +2765,12 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr"/>
@@ -2788,7 +2784,11 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
@@ -2805,15 +2805,15 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2827,40 +2827,40 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2870,63 +2870,63 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2947,53 +2947,53 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
@@ -3004,14 +3004,14 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3019,12 +3019,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3040,27 +3040,27 @@
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3071,18 +3071,22 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -3092,12 +3096,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
@@ -3108,25 +3112,21 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr">
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr"/>
     </row>
@@ -3141,13 +3141,17 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>2A</t>
@@ -3158,11 +3162,7 @@
           <t>3A</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -3171,27 +3171,27 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
           <t>5B</t>
         </is>
       </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3201,19 +3201,19 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>2A</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr"/>
@@ -3227,7 +3227,11 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3237,12 +3241,12 @@
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
@@ -3250,11 +3254,7 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="Q14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -3267,36 +3267,36 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
@@ -3308,17 +3308,17 @@
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr"/>
@@ -3331,24 +3331,20 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3366,12 +3362,12 @@
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
@@ -3379,13 +3375,17 @@
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr"/>
@@ -3398,17 +3398,17 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -3426,11 +3426,7 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="H17" s="3" t="inlineStr"/>
       <c r="I17" s="3" t="inlineStr">
         <is>
           <t>COPERTURA</t>
@@ -3446,10 +3442,14 @@
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
           <t>4B</t>
@@ -3463,41 +3463,33 @@
           <t>MER5</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr"/>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="H18" s="3" t="inlineStr"/>
       <c r="I18" s="3" t="inlineStr">
         <is>
           <t>4B</t>
@@ -3517,11 +3509,19 @@
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="Q18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3530,16 +3530,12 @@
           <t>MER6</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3557,24 +3553,16 @@
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
           <t>3A</t>
         </is>
       </c>
+      <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
           <t>4A</t>
         </is>
       </c>
+      <c r="J19" s="3" t="inlineStr"/>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
@@ -3583,9 +3571,21 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3593,60 +3593,60 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr"/>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
     </row>
@@ -3656,63 +3656,63 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="Q21" s="4" t="inlineStr"/>
@@ -3725,14 +3725,14 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3740,10 +3740,14 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr"/>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="G22" s="4" t="inlineStr"/>
       <c r="H22" s="4" t="inlineStr">
         <is>
@@ -3752,7 +3756,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -3765,21 +3769,17 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="L22" s="4" t="inlineStr"/>
       <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" s="4" t="inlineStr"/>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="Q22" s="4" t="inlineStr"/>
@@ -3790,50 +3790,50 @@
           <t>GIO4</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr"/>
+      <c r="B23" s="4" t="inlineStr"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr"/>
@@ -3841,12 +3841,12 @@
       <c r="N23" s="4" t="inlineStr"/>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="Q23" s="4" t="inlineStr"/>
@@ -3857,12 +3857,12 @@
           <t>GIO5</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr"/>
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3870,14 +3870,14 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
@@ -3908,12 +3908,12 @@
       <c r="N24" s="4" t="inlineStr"/>
       <c r="O24" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="Q24" s="4" t="inlineStr"/>
@@ -3924,12 +3924,12 @@
           <t>GIO6</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3960,11 +3960,7 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3975,10 +3971,14 @@
       <c r="N25" s="4" t="inlineStr"/>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr"/>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="Q25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3989,26 +3989,26 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr"/>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="C26" s="5" t="inlineStr"/>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr">
         <is>
@@ -4022,27 +4022,27 @@
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="M26" s="5" t="inlineStr"/>
       <c r="N26" s="5" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr"/>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -4060,26 +4060,30 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr"/>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J27" s="5" t="inlineStr">
@@ -4093,20 +4097,16 @@
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="M27" s="5" t="inlineStr"/>
       <c r="N27" s="5" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="Q27" s="5" t="inlineStr"/>
@@ -4119,14 +4119,14 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4134,46 +4134,46 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="M28" s="5" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr"/>
       <c r="O28" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="Q28" s="5" t="inlineStr"/>
@@ -4184,58 +4184,58 @@
           <t>VEN4</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr"/>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr"/>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr"/>
-      <c r="K29" s="5" t="inlineStr"/>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="L29" s="5" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="N29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>5B</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
@@ -4257,60 +4257,60 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr"/>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr"/>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr"/>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr"/>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="P30" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -590,29 +590,29 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
           <t>PEPE</t>
@@ -620,7 +620,7 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>PALMISANO SAVINO</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>CARDONE SAVINO</t>
         </is>
       </c>
     </row>
@@ -714,29 +714,29 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -749,17 +749,17 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>RUSSO</t>
         </is>
       </c>
     </row>
@@ -771,57 +771,57 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -831,54 +831,30 @@
           <t>LUN6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -891,24 +867,24 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>MARANGI</t>
@@ -921,22 +897,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>MOTORIA</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -949,57 +925,57 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1011,52 +987,52 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1073,7 +1049,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1083,14 +1059,14 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1098,12 +1074,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1113,17 +1089,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>CARDONE MARANGI</t>
         </is>
       </c>
     </row>
@@ -1135,24 +1111,24 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1165,17 +1141,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1185,7 +1161,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI SAVINO</t>
         </is>
       </c>
     </row>
@@ -1195,49 +1171,25 @@
           <t>MAR6</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1255,7 +1207,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1265,42 +1217,42 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1313,12 +1265,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1328,42 +1280,42 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SABATELLI ANGELINI</t>
         </is>
       </c>
     </row>
@@ -1375,57 +1327,57 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>RUSSO ANGELINI</t>
         </is>
       </c>
     </row>
@@ -1442,52 +1394,52 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1499,57 +1451,57 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -1559,54 +1511,30 @@
           <t>MER6</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
-        </is>
-      </c>
+      <c r="B19" s="3" t="inlineStr"/>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>LEO</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1619,17 +1547,17 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -1639,27 +1567,27 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -1677,47 +1605,47 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE2</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
@@ -1739,27 +1667,27 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
@@ -1769,7 +1697,7 @@
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
@@ -1779,7 +1707,7 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -1789,7 +1717,7 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CARDONE</t>
         </is>
       </c>
     </row>
@@ -1801,57 +1729,57 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MARANGI SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1863,12 +1791,12 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -1883,37 +1811,37 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO ANGELINI</t>
         </is>
       </c>
     </row>
@@ -1923,46 +1851,22 @@
           <t>GIO6</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>DOCENTE1</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1970,7 +1874,7 @@
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1983,17 +1887,17 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE4</t>
+          <t>SAVINO</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -2008,27 +1912,27 @@
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -2041,7 +1945,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -2051,47 +1955,47 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
           <t>LEO</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -2103,17 +2007,17 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -2123,37 +2027,37 @@
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>DOCENTE3</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -2165,42 +2069,42 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>SAVINO</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
@@ -2210,12 +2114,12 @@
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CARDONE</t>
         </is>
       </c>
     </row>
@@ -2227,24 +2131,24 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
+          <t>SAVINO</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -2257,27 +2161,27 @@
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
+          <t>MOTORIA</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,12 +2235,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>DOCENTE1</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>DOCENTE3</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -2386,7 +2290,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>DOCENTE2</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -2397,11 +2301,6 @@
       <c r="P1" t="inlineStr">
         <is>
           <t>SAVINO</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>DOCENTE4</t>
         </is>
       </c>
     </row>
@@ -2416,24 +2315,24 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
           <t>3A</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr">
         <is>
           <t>4B</t>
@@ -2445,7 +2344,11 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2454,17 +2357,12 @@
       <c r="N2" s="1" t="inlineStr"/>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
+          <t>3B</t>
         </is>
       </c>
     </row>
@@ -2479,61 +2377,68 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr"/>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr"/>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2543,10 +2448,14 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr"/>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>5A</t>
@@ -2554,24 +2463,20 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr">
         <is>
@@ -2585,22 +2490,29 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="inlineStr"/>
-      <c r="O4" s="1" t="inlineStr"/>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr"/>
+          <t>COPERTURA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2615,32 +2527,32 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>3A</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
@@ -2649,25 +2561,28 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr"/>
-      <c r="N5" s="1" t="inlineStr"/>
-      <c r="O5" s="1" t="inlineStr"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2677,22 +2592,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -2713,28 +2628,31 @@
       <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr"/>
-      <c r="P6" s="1" t="inlineStr"/>
-      <c r="Q6" s="1" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2742,62 +2660,37 @@
           <t>LUN6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr"/>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="P7" s="1" t="inlineStr"/>
-      <c r="Q7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -2811,14 +2704,10 @@
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
@@ -2834,33 +2723,36 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr"/>
+          <t>2B</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2870,14 +2762,14 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2885,49 +2777,64 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2937,64 +2844,79 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -3014,54 +2936,65 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr"/>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -3071,14 +3004,14 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3091,7 +3024,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3107,7 +3040,7 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -3117,18 +3050,25 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -3136,62 +3076,37 @@
           <t>MAR6</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -3209,52 +3124,51 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -3264,64 +3178,75 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr"/>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="inlineStr"/>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -3331,64 +3256,71 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
       <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -3408,54 +3340,61 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr"/>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr"/>
+          <t>3B</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -3471,28 +3410,32 @@
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -3503,26 +3446,21 @@
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3531,35 +3469,19 @@
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr"/>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
+      <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr"/>
@@ -3568,24 +3490,15 @@
       <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="P19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3595,58 +3508,57 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
           <t>4B</t>
         </is>
       </c>
+      <c r="J20" s="4" t="inlineStr"/>
       <c r="K20" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="L20" s="4" t="inlineStr"/>
       <c r="M20" s="4" t="inlineStr"/>
       <c r="N20" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O20" s="4" t="inlineStr"/>
-      <c r="P20" s="4" t="inlineStr"/>
-      <c r="Q20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3658,29 +3570,33 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -3690,7 +3606,7 @@
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
@@ -3702,20 +3618,19 @@
       <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q21" s="4" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -3725,12 +3640,12 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -3740,15 +3655,15 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3756,7 +3671,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -3771,18 +3686,21 @@
       </c>
       <c r="L22" s="4" t="inlineStr"/>
       <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q22" s="4" t="inlineStr"/>
+          <t>1A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -3790,66 +3708,77 @@
           <t>GIO4</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="Q23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -3857,66 +3786,69 @@
           <t>GIO5</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="Q24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -3925,39 +3857,15 @@
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr"/>
@@ -3968,18 +3876,17 @@
       </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="Q25" s="4" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
@@ -3987,58 +3894,57 @@
           <t>VEN1</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B26" s="5" t="inlineStr"/>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr"/>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr"/>
-      <c r="I26" s="5" t="inlineStr">
+      <c r="L26" s="5" t="inlineStr"/>
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
       <c r="N26" s="5" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
@@ -4062,54 +3968,61 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr"/>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr"/>
-      <c r="I27" s="5" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr"/>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="Q27" s="5" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
@@ -4119,64 +4032,71 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr"/>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr"/>
-      <c r="N28" s="5" t="inlineStr"/>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="Q28" s="5" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
@@ -4186,41 +4106,45 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr"/>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J29" s="5" t="inlineStr"/>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>5A</t>
@@ -4229,21 +4153,24 @@
       <c r="L29" s="5" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr"/>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="Q29" s="5" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
@@ -4251,66 +4178,65 @@
           <t>VEN5</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr"/>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr"/>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr"/>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="Q30" s="5" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
@@ -4333,7 +4259,6 @@
       <c r="N31" s="5" t="inlineStr"/>
       <c r="O31" s="5" t="inlineStr"/>
       <c r="P31" s="5" t="inlineStr"/>
-      <c r="Q31" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,52 +527,52 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>CARDONE (1h)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -600,32 +600,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>MARANGI</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO SAVINO</t>
+          <t>SAVINO (1h) CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (3h)</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>CARDONE SAVINO</t>
+          <t>ANGELINI (1h) SABATELLI (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -709,57 +709,57 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>RUSSO (3h)</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
     </row>
@@ -771,37 +771,37 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (1h 30m)</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>CICCIMARRA (1h 30m)</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (1h 30m)</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
@@ -811,17 +811,17 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
     </row>
@@ -839,22 +839,22 @@
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -867,47 +867,47 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -935,47 +935,47 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
     </row>
@@ -987,24 +987,24 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>SIMEONE</t>
@@ -1012,32 +1012,32 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
     </row>
@@ -1049,57 +1049,57 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (3h)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>CARDONE MARANGI</t>
+          <t>MARANGI (1h) PEPE (1h)</t>
         </is>
       </c>
     </row>
@@ -1111,57 +1111,57 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (1h 30m)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h 30m)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI SAVINO</t>
+          <t>PALMISANO (1h) CARDONE (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1179,22 +1179,22 @@
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1207,32 +1207,32 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1265,12 +1265,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1280,42 +1280,42 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI ANGELINI</t>
+          <t>PEPE (1h) MARANGI (1h)</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1327,12 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ANGELINI (3h)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1342,42 +1342,42 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
           <t>CARDONE</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>RUSSO ANGELINI</t>
+          <t>MARANGI (1h) SABATELLI (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1389,37 +1389,37 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (3h)</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
@@ -1429,17 +1429,17 @@
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
     </row>
@@ -1451,44 +1451,44 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (1h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>CICCIMARRA (1h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (2h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE (2h 30m)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
+          <t>CARDONE (1h)</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
           <t>LEO</t>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1557,17 +1557,17 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr"/>
@@ -1605,22 +1605,22 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
           <t>RUSSO</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
@@ -1640,22 +1640,22 @@
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
         </is>
       </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -1667,57 +1667,57 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>ANGELINI (3h)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (3h)</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1739,27 +1739,27 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO</t>
-        </is>
-      </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>SIMEONE (3h)</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>MARANGI SABATELLI</t>
+          <t>SABATELLI (1h) PEPE (1h)</t>
         </is>
       </c>
     </row>
@@ -1791,32 +1791,32 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (2h 30m)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>ANGELINI (2h 30m)</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (2h 30m)</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (1h 30m)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
@@ -1826,22 +1826,22 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO ANGELINI</t>
+          <t>SAVINO (1h) CARDONE (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1859,22 +1859,22 @@
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1887,27 +1887,27 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
@@ -1917,22 +1917,22 @@
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -1955,17 +1955,17 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
@@ -1975,27 +1975,27 @@
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -2007,12 +2007,12 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -2027,22 +2027,22 @@
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (3h)</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
     </row>
@@ -2074,37 +2074,37 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -2131,57 +2131,57 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
     </row>
@@ -2203,6 +2203,82 @@
       <c r="K31" s="5" t="inlineStr"/>
       <c r="L31" s="5" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(27h)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(27h)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(27h)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>(27h)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(27h)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(27h)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(29h)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(29h)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(29h)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>(29h)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>(26h)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2214,7 +2290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,57 +2388,57 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr"/>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr"/>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr"/>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2450,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -2382,10 +2458,14 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -2395,48 +2475,40 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr"/>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+      <c r="L3" s="1" t="inlineStr"/>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2520,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -2463,17 +2535,17 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (3h)</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr"/>
@@ -2495,22 +2567,22 @@
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -2522,65 +2594,73 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>1B (3h)</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr"/>
+          <t>1A (2h)</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
     </row>
@@ -2592,37 +2672,33 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+          <t>1A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2B (1h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (1h 30m)</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h 30m)</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr"/>
@@ -2634,23 +2710,27 @@
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr"/>
+          <t>1B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -2662,11 +2742,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
@@ -2674,20 +2750,24 @@
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr"/>
-      <c r="M7" s="1" t="inlineStr"/>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr"/>
@@ -2698,32 +2778,36 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="B8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
@@ -2732,25 +2816,21 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -2767,72 +2847,64 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -2844,77 +2916,73 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -2926,73 +2994,77 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2B (2h)</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3A (3h)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr"/>
+          <t>2A (2h)</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>BUCO (3h)</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3004,69 +3076,65 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (1h 30m)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2B (1h 30m)</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A (1h 30m)</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B (1h 30m)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3148,7 @@
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -3090,12 +3158,12 @@
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -3103,7 +3171,7 @@
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr"/>
@@ -3116,38 +3184,30 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -3157,16 +3217,24 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -3178,73 +3246,65 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3256,22 +3316,22 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>1A (3h)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -3281,44 +3341,44 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3330,42 +3390,42 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (2h)</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (3h)</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -3376,23 +3436,23 @@
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3465,7 @@
       <c r="B18" s="3" t="inlineStr"/>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -3415,44 +3475,44 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (1h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A (2h 30m)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B (2h 30m)</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1B (1h 30m)</t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="O18" s="3" t="inlineStr">
@@ -3460,7 +3520,11 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="P18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3472,33 +3536,33 @@
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>4B (3h)</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="N19" s="3" t="inlineStr"/>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr"/>
+          <t>5A (2h)</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3518,12 +3582,12 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
@@ -3532,33 +3596,33 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+      <c r="H20" s="4" t="inlineStr"/>
       <c r="I20" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K20" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L20" s="4" t="inlineStr"/>
       <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -3570,65 +3634,69 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2A (2h)</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
           <t>5A</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
         </is>
       </c>
       <c r="L21" s="4" t="inlineStr"/>
       <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
     </row>
@@ -3640,65 +3708,69 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (3h)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
+          <t>1B (3h)</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
           <t>BUCO</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr"/>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="L22" s="4" t="inlineStr"/>
       <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>BUCO (2h)</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3715,68 +3787,64 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3A (3h)</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (2h)</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr"/>
       <c r="N23" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -3788,33 +3856,37 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>1B (2h 30m)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr"/>
+          <t>1A (2h 30m)</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (2h 30m)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (1h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h 30m)</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
@@ -3824,31 +3896,27 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>5B (2h)</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr"/>
       <c r="M24" s="4" t="inlineStr"/>
       <c r="N24" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P24" s="4" t="inlineStr"/>
+          <t>COPERTURA (0h 30m)</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -3858,34 +3926,34 @@
       </c>
       <c r="B25" s="4" t="inlineStr"/>
       <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>5A (3h)</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>4B (3h)</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
       <c r="N25" s="4" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3895,58 +3963,58 @@
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr"/>
-      <c r="C26" s="5" t="inlineStr"/>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr"/>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
       <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr"/>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -3963,29 +4031,21 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (2h)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr">
         <is>
           <t>3B</t>
@@ -3993,34 +4053,38 @@
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr"/>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+          <t>5B (2h)</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr"/>
       <c r="N27" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -4032,20 +4096,20 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>1B (2h)</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr"/>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr"/>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
           <t>2B</t>
@@ -4053,22 +4117,22 @@
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (3h)</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
@@ -4076,15 +4140,19 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="L28" s="5" t="inlineStr"/>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="O28" s="5" t="inlineStr">
@@ -4094,7 +4162,7 @@
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
     </row>
@@ -4109,11 +4177,7 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="inlineStr">
         <is>
           <t>5B</t>
@@ -4122,53 +4186,57 @@
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L29" s="5" t="inlineStr"/>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="N29" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -4180,61 +4248,61 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>1A (2h)</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr"/>
+          <t>5A (3h)</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="N30" s="5" t="inlineStr"/>
-      <c r="O30" s="5" t="inlineStr"/>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -4260,6 +4328,106 @@
       <c r="O31" s="5" t="inlineStr"/>
       <c r="P31" s="5" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TOTALE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>(12h)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>(8h)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>(20h)</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>(22h)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,52 +527,52 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h)</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PEPE (1h)</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>CARDONE (1h)</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,37 +585,37 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI (2h)</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h) CARDONE (1h)</t>
+          <t>SAVINO (1h) MARANGI (1h)</t>
         </is>
       </c>
     </row>
@@ -647,57 +647,57 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE (2h)</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>CARDONE (1h)</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>LEO (2h)</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI (3h)</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI (1h) SABATELLI (0h 30m)</t>
+          <t>MARANGI (1h) SABATELLI (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -709,22 +709,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA (2h)</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>RUSSO (3h)</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -734,32 +734,32 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO (3h)</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>CARDONE (2h)</t>
-        </is>
-      </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
     </row>
@@ -771,22 +771,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>RUSSO (1h 30m)</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h 30m)</t>
-        </is>
-      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h 30m)</t>
+          <t>SCHIAVONE (2h 30m)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI (1h 30m)</t>
+          <t>SABATELLI (2h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
@@ -811,17 +811,17 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -867,29 +867,29 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI (1h)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>RUSSO (1h)</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>SIMEONE (1h)</t>
@@ -897,17 +897,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -925,57 +925,57 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (1h)</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>PEPE (2h)</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>OSTUNI (2h)</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI (2h)</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>RUSSO (1h)</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>ANGELINI (2h)</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE (2h)</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>CARDONE (1h)</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>OSTUNI (1h)</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>RUSSO (1h)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI (2h)</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI (3h)</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
         </is>
       </c>
     </row>
@@ -1049,57 +1049,57 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA (2h)</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE (3h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>PALMISANO (1h)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>PEPE (2h)</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>MOTORIA (1h)</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>MARANGI (1h) PEPE (1h)</t>
+          <t>MARANGI (1h) ANGELINI (1h)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (1h 30m)</t>
+          <t>RUSSO (2h 30m)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h 30m)</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>MARANGI (1h 30m)</t>
@@ -1136,32 +1136,32 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE (1h 30m)</t>
+          <t>SIMEONE (2h 30m)</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI (3h)</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO (1h) CARDONE (0h 30m)</t>
+          <t>CARDONE (1h) PALMISANO (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1179,22 +1179,22 @@
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>PALMISANO (1h)</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1207,27 +1207,27 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1237,22 +1237,22 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
+          <t>ZIZZI (1h)</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
           <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1265,57 +1265,57 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO (2h)</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI (1h)</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>PEPE (1h) MARANGI (1h)</t>
+          <t>SABATELLI (1h) RUSSO (1h)</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1327,12 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI (3h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1342,42 +1342,42 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO (3h)</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI (1h) SABATELLI (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1389,57 +1389,57 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (2h)</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI (3h)</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE (3h)</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h)</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (3h)</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (2h)</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>CARDONE (3h)</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1451,12 +1451,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (1h 30m)</t>
+          <t>ANGELINI (3h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h 30m)</t>
+          <t>RUSSO (3h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1471,37 +1471,37 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>MARANGI (2h 30m)</t>
+          <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (2h 30m)</t>
+          <t>MARANGI (1h 30m)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>CARDONE (1h)</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>PEPE (3h)</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>LEO (2h)</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -1567,17 +1567,17 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -1605,37 +1605,37 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (2h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
-        </is>
-      </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
     </row>
@@ -1667,42 +1667,42 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (3h)</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (3h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SABATELLI (3h)</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
     </row>
@@ -1729,42 +1729,42 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (3h)</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE (3h)</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1791,42 +1791,42 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (2h 30m)</t>
+          <t>RUSSO (1h 30m)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (2h 30m)</t>
+          <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE (1h 30m)</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
           <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (2h 30m)</t>
-        </is>
-      </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>MARANGI (1h 30m)</t>
+          <t>SIMEONE (2h 30m)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (1h 30m)</t>
+          <t>MARANGI (2h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>ZIZZI (2h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h) CARDONE (0h 30m)</t>
+          <t>PEPE (1h) PALMISANO (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>PEPE (2h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="K25" s="4" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="L25" s="4" t="inlineStr"/>
@@ -1887,42 +1887,42 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>ANGELINI (1h)</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>RUSSO (1h)</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
@@ -1945,44 +1945,44 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
           <t>RUSSO (1h)</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO (2h)</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
           <t>PEPE (2h)</t>
         </is>
       </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
           <t>OSTUNI (2h)</t>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
     </row>
@@ -2007,42 +2007,42 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE (3h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -2079,34 +2079,34 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>LEO (2h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
+          <t>PEPE (2h)</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
@@ -2131,44 +2131,44 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (2h)</t>
+          <t>ANGELINI (3h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (3h)</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h)</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
           <t>PALMISANO (2h)</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
           <t>ZIZZI (3h)</t>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
@@ -2386,26 +2386,26 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr"/>
@@ -2417,28 +2417,28 @@
       <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr"/>
-      <c r="M2" s="1" t="inlineStr">
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -2448,14 +2448,10 @@
           <t>LUN2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
+      <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -2465,17 +2461,17 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>2B (2h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr"/>
@@ -2484,26 +2480,30 @@
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr"/>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>1A (2h)</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2A (2h)</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>3B (3h)</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr"/>
@@ -2557,32 +2557,28 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr"/>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -2594,32 +2590,32 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>1B (3h)</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -2630,39 +2626,27 @@
       <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>1A (2h)</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr"/>
+      <c r="M5" s="1" t="inlineStr"/>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2672,23 +2656,27 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>1A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr"/>
+          <t>1B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>2B (1h 30m)</t>
+          <t>2B (2h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2A (1h 30m)</t>
+          <t>2A (2h 30m)</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -2708,31 +2696,23 @@
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>1B (1h 30m)</t>
-        </is>
-      </c>
+      <c r="L6" s="1" t="inlineStr"/>
       <c r="M6" s="1" t="inlineStr">
         <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA (2h)</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
           <t>5A (1h)</t>
         </is>
       </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
+      <c r="P6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2742,7 +2722,11 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
@@ -2757,19 +2741,15 @@
       <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
           <t>4A (1h)</t>
         </is>
       </c>
+      <c r="O7" s="1" t="inlineStr"/>
       <c r="P7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2778,15 +2758,19 @@
           <t>MAR1</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2795,11 +2779,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3B (1h)</t>
@@ -2807,7 +2787,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr"/>
@@ -2816,21 +2796,21 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -2847,29 +2827,25 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+      <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>3A</t>
@@ -2877,34 +2853,30 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
+          <t>5B (2h)</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -2921,68 +2893,56 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>BUCO (2h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3B (2h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -2994,77 +2954,65 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2B (2h)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2A (2h)</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
           <t>1B (1h)</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2B (2h)</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3A (3h)</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2A (2h)</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (3h)</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3081,24 +3029,20 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+          <t>1A (2h 30m)</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2B (1h 30m)</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2A (1h 30m)</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>3A (1h 30m)</t>
@@ -3106,35 +3050,39 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3B (1h 30m)</t>
+          <t>3B (2h 30m)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>COPERTURA (0h 30m)</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5A (3h)</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (0h 30m)</t>
-        </is>
-      </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3146,11 +3094,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5B (3h)</t>
-        </is>
-      </c>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr"/>
@@ -3158,20 +3102,24 @@
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
           <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5A (3h)</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr"/>
@@ -3184,57 +3132,57 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>2A (1h)</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr"/>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -3246,65 +3194,65 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr"/>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr"/>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -3316,22 +3264,22 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>1A (3h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>COPERTURA (1h 30m)</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -3341,44 +3289,40 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -3390,69 +3334,61 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>2A (3h)</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (3h)</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (3h)</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>2B (2h)</t>
-        </is>
-      </c>
+      <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>5A (3h)</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr"/>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3462,15 +3398,19 @@
           <t>MER5</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>1A (3h 30m)</t>
+        </is>
+      </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1A (1h 30m)</t>
+          <t>1B (3h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -3485,46 +3425,38 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>3A (2h 30m)</t>
+          <t>3B (1h 30m)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3B (2h 30m)</t>
+          <t>3A (1h 30m)</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>COPERTURA (3h)</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>1B (1h 30m)</t>
-        </is>
-      </c>
+      <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3536,17 +3468,21 @@
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>4B (3h)</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
@@ -3555,14 +3491,10 @@
       <c r="N19" s="3" t="inlineStr"/>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -3570,16 +3502,8 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3593,28 +3517,36 @@
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr"/>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
           <t>4B</t>
         </is>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="4" t="inlineStr">
         <is>
           <t>2B (1h)</t>
@@ -3622,7 +3554,7 @@
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -3632,16 +3564,8 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3649,22 +3573,22 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2A (2h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>3B (2h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -3672,31 +3596,31 @@
           <t>4B (2h)</t>
         </is>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="J21" s="4" t="inlineStr"/>
       <c r="K21" s="4" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>1B (2h)</t>
+        </is>
+      </c>
       <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr">
         <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
         </is>
       </c>
     </row>
@@ -3706,14 +3630,10 @@
           <t>GIO3</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>1A (3h)</t>
-        </is>
-      </c>
+      <c r="B22" s="4" t="inlineStr"/>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>1B (3h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -3723,32 +3643,32 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A (3h)</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B (2h)</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>4A (3h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -3758,19 +3678,15 @@
       </c>
       <c r="L22" s="4" t="inlineStr"/>
       <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
+      <c r="N22" s="4" t="inlineStr"/>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>BUCO (2h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -3782,12 +3698,12 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -3802,27 +3718,27 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (3h)</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>BUCO (2h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>3A (3h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
@@ -3832,19 +3748,15 @@
       </c>
       <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr">
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3768,12 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>1B (2h 30m)</t>
+          <t>1B (1h 30m)</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>1A (2h 30m)</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -3871,50 +3783,50 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
+          <t>2B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
           <t>2A (1h 30m)</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2B (2h 30m)</t>
-        </is>
-      </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>3A (1h 30m)</t>
+          <t>3B (2h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>3B (1h 30m)</t>
+          <t>3A (2h 30m)</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L24" s="4" t="inlineStr"/>
       <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA (0h 30m)</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3935,25 +3847,25 @@
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
+      <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>4B (3h)</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr"/>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="P25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3962,10 +3874,14 @@
           <t>VEN1</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -3975,24 +3891,24 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
           <t>4A</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
@@ -4002,19 +3918,15 @@
       </c>
       <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>3A (1h)</t>
         </is>
       </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -4026,12 +3938,12 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -4041,50 +3953,46 @@
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
           <t>4A (2h)</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
           <t>5B (2h)</t>
         </is>
       </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
+      <c r="L27" s="5" t="inlineStr"/>
       <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+      <c r="N27" s="5" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -4096,73 +4004,61 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr"/>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr"/>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>3A (2h)</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>3B (3h)</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
+      <c r="L28" s="5" t="inlineStr"/>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="O28" s="5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -4178,60 +4074,52 @@
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr"/>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>2B (2h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr"/>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
           <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>4B (2h)</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>2A (2h)</t>
         </is>
       </c>
       <c r="P29" s="5" t="inlineStr">
@@ -4248,27 +4136,23 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>1A (3h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr"/>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>5B (2h)</t>
-        </is>
-      </c>
+      <c r="D30" s="5" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr"/>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3A (2h)</t>
-        </is>
-      </c>
+          <t>2A (3h)</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="inlineStr">
         <is>
           <t>COPERTURA (1h)</t>
@@ -4276,7 +4160,7 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
@@ -4286,23 +4170,27 @@
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr"/>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,52 +527,52 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>MARANGI (1h)</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>PALMISANO (1h)</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>PEPE (1h)</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>CARDONE (1h)</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,42 +585,42 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h) MARANGI (1h)</t>
+          <t>CARDONE (1h) RUSSO (1h)</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>RUSSO</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -677,27 +677,27 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>MARANGI (1h) SABATELLI (0h 30m)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -709,57 +709,57 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI (1h)</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>RUSSO (2h)</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI (2h)</t>
-        </is>
-      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>MARANGI (3h)</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>SIMEONE (1h)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI (1h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
     </row>
@@ -771,57 +771,57 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>RUSSO (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>RUSSO (1h 30m)</t>
-        </is>
-      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>SABATELLI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE (2h 30m)</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI (2h 30m)</t>
-        </is>
-      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE (1h 30m)</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>MARANGI (1h 30m)</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h 30m)</t>
-        </is>
-      </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
           <t>MOTORIA (1h)</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -839,22 +839,22 @@
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr">
         <is>
+          <t>LEO (2h)</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI (2h)</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -867,32 +867,32 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE (1h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -925,32 +925,32 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI (2h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI (3h)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>RUSSO (3h)</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI (2h)</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE (2h)</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
     </row>
@@ -1054,39 +1054,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>SABATELLI (2h)</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (3h)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE (2h)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (2h)</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI (2h)</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>MARANGI (1h) ANGELINI (1h)</t>
+          <t>PALMISANO (1h) PEPE (1h)</t>
         </is>
       </c>
     </row>
@@ -1116,32 +1116,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI (1h 30m)</t>
+          <t>ANGELINI (2h 30m)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE (1h 30m)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h 30m)</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>SIMEONE (1h 30m)</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>MARANGI (1h 30m)</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE (2h 30m)</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (1h) PALMISANO (0h 30m)</t>
+          <t>CARDONE (1h) SAVINO (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1207,52 +1207,52 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
           <t>RUSSO (1h)</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI</t>
-        </is>
-      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
           <t>CICCIMARRA (1h)</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h)</t>
-        </is>
-      </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
+          <t>CARDONE (1h)</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI (1h)</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1265,17 +1265,17 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
           <t>CICCIMARRA (1h)</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>ANGELINI (2h)</t>
-        </is>
-      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1285,32 +1285,32 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>PEPE (2h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1342,42 +1342,42 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE (1h)</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO (3h)</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>PEPE (3h)</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
           <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO (3h)</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1389,57 +1389,57 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>MARANGI (3h)</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (3h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>CARDONE (3h)</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
     </row>
@@ -1451,57 +1451,57 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI (3h 30m)</t>
+          <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (3h 30m)</t>
+          <t>RUSSO (1h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h 30m)</t>
+          <t>SCHIAVONE (3h 30m)</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h 30m)</t>
+          <t>SABATELLI (3h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
+          <t>MARANGI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
           <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI (1h 30m)</t>
-        </is>
-      </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>PEPE (3h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
+          <t>PEPE (3h)</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO (3h)</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1547,37 +1547,37 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI (1h)</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h)</t>
-        </is>
-      </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -1605,37 +1605,37 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
+          <t>CICCIMARRA</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (1h)</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (2h)</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
     </row>
@@ -1667,44 +1667,44 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (1h)</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>PEPE (1h)</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI (3h)</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE (2h)</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
           <t>ZIZZI (3h)</t>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -1729,32 +1729,32 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>ANGELINI (3h)</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (3h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (2h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (1h) PEPE (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1791,42 +1791,42 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>ANGELINI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
           <t>RUSSO (1h 30m)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h 30m)</t>
-        </is>
-      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h 30m)</t>
+          <t>SABATELLI (2h 30m)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (1h 30m)</t>
+          <t>SCHIAVONE (2h 30m)</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (2h 30m)</t>
+          <t>MARANGI (1h 30m)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>MARANGI (2h 30m)</t>
+          <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>PEPE (1h) PALMISANO (0h 30m)</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
@@ -1922,17 +1922,17 @@
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -1945,12 +1945,12 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
@@ -1970,32 +1970,32 @@
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI (2h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2012,52 +2012,52 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE (3h)</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO (3h)</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE (2h)</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>OSTUNI (1h)</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -2069,39 +2069,39 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
           <t>PALMISANO</t>
@@ -2109,17 +2109,17 @@
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>PEPE (3h)</t>
         </is>
       </c>
     </row>
@@ -2131,37 +2131,37 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (3h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (3h)</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
           <t>CICCIMARRA (1h)</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (3h)</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I30" s="5" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
     </row>
@@ -2389,56 +2389,56 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>4A (1h)</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr"/>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="K2" s="1" t="inlineStr"/>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -2461,30 +2461,30 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr"/>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2492,23 +2492,23 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
           <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
         </is>
       </c>
     </row>
@@ -2520,55 +2520,55 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA (0h 30m)</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>5A (2h)</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2B (2h)</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+      <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr"/>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -2590,63 +2590,63 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>1B (2h)</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>1A (2h)</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA (2h)</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
+          <t>3A (3h)</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
           <t>3B (1h)</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
       <c r="I5" s="1" t="inlineStr"/>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>4A (3h)</t>
-        </is>
-      </c>
+      <c r="J5" s="1" t="inlineStr"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr"/>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
           <t>5A (1h)</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr"/>
-      <c r="M5" s="1" t="inlineStr"/>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr"/>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2656,63 +2656,63 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>1B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>1A (1h 30m)</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="D6" s="1" t="inlineStr"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
+          <t>2A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
           <t>2B (2h 30m)</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>2A (2h 30m)</t>
-        </is>
-      </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>3B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>3A (1h 30m)</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>3B (1h 30m)</t>
-        </is>
-      </c>
       <c r="I6" s="1" t="inlineStr"/>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="inlineStr"/>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr"/>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2722,34 +2722,34 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>5B (3h)</t>
-        </is>
-      </c>
+      <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>4B (2h)</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr"/>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
       <c r="P7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2773,16 +2773,16 @@
           <t>5A</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
+      <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr"/>
@@ -2807,12 +2807,12 @@
           <t>4B</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2822,33 +2822,33 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr"/>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2859,12 +2859,12 @@
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr"/>
@@ -2873,12 +2873,12 @@
           <t>4B (2h)</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>3B (1h)</t>
         </is>
       </c>
+      <c r="P9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2888,61 +2888,61 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>1A (3h)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1B (3h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2B</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -2954,65 +2954,65 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2A (2h)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2B (3h)</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2B (2h)</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2A (2h)</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4B (2h)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+      <c r="M11" s="2" t="inlineStr"/>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1B (1h 30m)</t>
+          <t>1B (2h 30m)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -3032,36 +3032,40 @@
           <t>1A (2h 30m)</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2A (1h 30m)</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2B (1h 30m)</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>3B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3B (2h 30m)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr"/>
@@ -3075,14 +3079,10 @@
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+      <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,11 @@
       </c>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5B (3h)</t>
+        </is>
+      </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr"/>
@@ -3105,23 +3109,19 @@
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5A (3h)</t>
+        </is>
+      </c>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
           <t>4A (1h)</t>
         </is>
       </c>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3130,59 +3130,59 @@
           <t>MER1</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+      <c r="B14" s="3" t="inlineStr"/>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr"/>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -3192,20 +3192,20 @@
           <t>MER2</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>1B (2h)</t>
-        </is>
-      </c>
+      <c r="B15" s="3" t="inlineStr"/>
       <c r="C15" s="3" t="inlineStr">
         <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -3215,44 +3215,44 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr"/>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -3264,14 +3264,14 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>COPERTURA (0h 30m)</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (1h 30m)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -3289,40 +3289,40 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>4B (3h)</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
+      <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
+          <t>3A (2h)</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -3334,61 +3334,61 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>2A (2h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>3A (3h)</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>3B (3h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>5A (3h)</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3400,63 +3400,63 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>1A (3h 30m)</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1B (3h 30m)</t>
+          <t>1B (1h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2A (1h 30m)</t>
+          <t>2B (3h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>2B (1h 30m)</t>
+          <t>2A (3h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
+          <t>3A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
           <t>3B (1h 30m)</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>3A (1h 30m)</t>
-        </is>
-      </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (3h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+      <c r="N18" s="3" t="inlineStr"/>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3468,7 +3468,7 @@
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>5A (2h)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
@@ -3477,12 +3477,12 @@
       <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>4A (3h)</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
@@ -3491,7 +3491,7 @@
       <c r="N19" s="3" t="inlineStr"/>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="P19" s="3" t="inlineStr"/>
@@ -3502,7 +3502,11 @@
           <t>GIO1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr">
         <is>
@@ -3511,50 +3515,46 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
+      <c r="G20" s="4" t="inlineStr"/>
       <c r="H20" s="4" t="inlineStr">
         <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
           <t>3A (1h)</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr"/>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L20" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -3564,7 +3564,11 @@
           <t>GIO2</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr">
         <is>
@@ -3573,54 +3577,50 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>3A (1h)</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>4B (2h)</t>
-        </is>
-      </c>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L21" s="4" t="inlineStr">
-        <is>
-          <t>1B (2h)</t>
-        </is>
-      </c>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr">
-        <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="O21" s="4" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -3630,12 +3630,12 @@
           <t>GIO3</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr"/>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>5B (3h)</t>
@@ -3643,50 +3643,50 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2A (3h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="K22" s="4" t="inlineStr">
         <is>
           <t>5A (3h)</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr"/>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>1A (2h)</t>
+        </is>
+      </c>
       <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" s="4" t="inlineStr"/>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3698,14 +3698,14 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
+          <t>1B (3h)</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
           <t>1A (1h)</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3713,22 +3713,22 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>2B (3h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K23" s="4" t="inlineStr">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="L23" s="4" t="inlineStr"/>
       <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr"/>
       <c r="P23" s="4" t="inlineStr">
         <is>
           <t>4A (1h)</t>
@@ -3768,14 +3768,14 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>1A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
           <t>1B (1h 30m)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>1A (1h 30m)</t>
-        </is>
-      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
           <t>5A</t>
@@ -3783,22 +3783,22 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2B (1h 30m)</t>
+          <t>2A (2h 30m)</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>2A (1h 30m)</t>
+          <t>2B (2h 30m)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>3B (2h 30m)</t>
+          <t>3A (1h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>3A (2h 30m)</t>
+          <t>3B (1h 30m)</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K24" s="4" t="inlineStr">
@@ -3818,15 +3818,15 @@
       </c>
       <c r="L24" s="4" t="inlineStr"/>
       <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr"/>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="K25" s="4" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -3898,12 +3898,12 @@
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
@@ -3911,19 +3911,19 @@
           <t>4A</t>
         </is>
       </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
+      <c r="K26" s="5" t="inlineStr"/>
       <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="inlineStr"/>
       <c r="P26" s="5" t="inlineStr">
         <is>
           <t>2A (1h)</t>
@@ -3938,17 +3938,17 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -3969,30 +3969,30 @@
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>5B (2h)</t>
-        </is>
-      </c>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr"/>
       <c r="L27" s="5" t="inlineStr"/>
-      <c r="M27" s="5" t="inlineStr"/>
-      <c r="N27" s="5" t="inlineStr"/>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr"/>
       <c r="P27" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -4007,32 +4007,36 @@
           <t>1A</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr"/>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr"/>
       <c r="E28" s="5" t="inlineStr"/>
       <c r="F28" s="5" t="inlineStr">
         <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr"/>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>3A (3h)</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
@@ -4041,19 +4045,15 @@
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
         </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr"/>
@@ -4083,13 +4083,17 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr"/>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>COPERTURA (3h)</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
@@ -4099,32 +4103,28 @@
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5A (2h)</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>5B (2h)</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>1A (3h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr"/>
@@ -4149,13 +4149,17 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr"/>
+          <t>3A (2h)</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="J30" s="5" t="inlineStr">
@@ -4165,32 +4169,28 @@
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
           <t>1B (1h)</t>
         </is>
       </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,52 +527,52 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI (1h)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>PEPE (1h)</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
           <t>PALMISANO (1h)</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr"/>
@@ -585,57 +585,57 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI (2h)</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (1h)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI (2h)</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI (2h)</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
           <t>PEPE (1h)</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
-        </is>
-      </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (1h) RUSSO (1h)</t>
+          <t>SAVINO (1h) PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -677,27 +677,27 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
           <t>MOTORIA (1h)</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>ZIZZI (3h)</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>RUSSO (1h) MARANGI (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -709,57 +709,57 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>SIMEONE (1h)</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO (2h)</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI (1h)</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>RUSSO (2h)</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI (3h)</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h)</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>CARDONE (2h)</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI (3h)</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI (2h)</t>
         </is>
       </c>
     </row>
@@ -771,22 +771,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>ANGELINI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>RUSSO (1h 30m)</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h 30m)</t>
-        </is>
-      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI (1h 30m)</t>
+          <t>SABATELLI (3h 30m)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h 30m)</t>
+          <t>SCHIAVONE (3h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -801,27 +801,27 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (1h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -839,22 +839,22 @@
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>LEO (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>OSTUNI (2h)</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
           <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI (2h)</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -867,17 +867,17 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -887,32 +887,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>PEPE</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -925,52 +925,52 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>PEPE (2h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -987,24 +987,24 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI (3h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (3h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>SAVINO (1h)</t>
@@ -1017,22 +1017,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>PEPE (3h)</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (3h)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE (2h)</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI (2h)</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (3h)</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1079,27 +1079,27 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO (1h) PEPE (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
     </row>
@@ -1111,24 +1111,24 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (2h 30m)</t>
+          <t>CICCIMARRA (1h 30m)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI (2h 30m)</t>
+          <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h 30m)</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>SIMEONE (1h 30m)</t>
@@ -1141,27 +1141,27 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (1h) SAVINO (0h 30m)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
     </row>
@@ -1184,17 +1184,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI (3h)</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1207,47 +1207,47 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>RUSSO (1h)</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
@@ -1265,32 +1265,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h)</t>
-        </is>
-      </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>MARANGI (2h)</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h) RUSSO (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -1327,34 +1327,34 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (3h)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
+          <t>ANGELINI (2h)</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (2h)</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE (2h)</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h)</t>
-        </is>
-      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
           <t>PALMISANO (3h)</t>
@@ -1362,22 +1362,22 @@
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>PEPE (3h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
     </row>
@@ -1389,57 +1389,57 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE (1h)</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>LEO (2h)</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>OSTUNI (3h)</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
         </is>
       </c>
     </row>
@@ -1451,37 +1451,37 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI (1h 30m)</t>
+          <t>ANGELINI (2h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (1h 30m)</t>
+          <t>RUSSO (2h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (3h 30m)</t>
+          <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (3h 30m)</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>MARANGI (1h 30m)</t>
+          <t>SIMEONE (3h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (1h 30m)</t>
+          <t>MARANGI (2h 30m)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>PEPE (3h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>CARDONE (3h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>LEO (2h)</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1547,37 +1547,37 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI (1h)</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>SIMEONE (1h)</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -1605,37 +1605,37 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h)</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (2h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
     </row>
@@ -1667,57 +1667,57 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>CICCIMARRA (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
         <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="H22" s="4" t="inlineStr">
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI (3h)</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>OSTUNI (3h)</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>PEPE (1h)</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI (3h)</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>OSTUNI (3h)</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -1729,37 +1729,37 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (3h)</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>SIMEONE (3h)</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SABATELLI (1h) CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -1791,42 +1791,42 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
           <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>RUSSO (1h 30m)</t>
-        </is>
-      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (2h 30m)</t>
+          <t>SCHIAVONE (2h 30m)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h 30m)</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE (1h 30m)</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
           <t>MARANGI (1h 30m)</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h 30m)</t>
-        </is>
-      </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>PEPE (2h)</t>
+          <t>SAVINO (1h) RUSSO (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>PEPE (3h)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
           <t>SIMEONE</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -1945,57 +1945,57 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (2h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>PEPE (2h)</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI (2h)</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>OSTUNI (2h)</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
           <t>SABATELLI (1h)</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h)</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE (2h)</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>OSTUNI (1h)</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -2007,52 +2007,52 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
+          <t>MARANGI (3h)</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
           <t>SIMEONE (3h)</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (2h)</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -2089,37 +2089,37 @@
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI (2h)</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>PEPE (3h)</t>
+          <t>PEPE (2h)</t>
         </is>
       </c>
     </row>
@@ -2131,57 +2131,57 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>ANGELINI (2h)</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>SCHIAVONE (2h)</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (3h)</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
-        </is>
-      </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO (1h)</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
           <t>PEPE (1h)</t>
         </is>
       </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
+          <t>MOTORIA (1h)</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI (3h)</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI (1h)</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h)</t>
         </is>
       </c>
     </row>
@@ -2386,17 +2386,13 @@
           <t>LUN1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>2B</t>
@@ -2405,21 +2401,25 @@
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
           <t>2A (1h)</t>
@@ -2428,17 +2428,17 @@
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -2448,17 +2448,17 @@
           <t>LUN2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>1A (2h)</t>
+        </is>
+      </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>2B (2h)</t>
@@ -2466,49 +2466,53 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr"/>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
           <t>4A (1h)</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr">
         <is>
+          <t>5B (2h)</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -2520,65 +2524,69 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA (0h 30m)</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2A (2h)</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>3A</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
-      <c r="J4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
           <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -2590,18 +2598,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
           <t>1A (1h)</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>1B (2h)</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -2611,7 +2623,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>3A (3h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -2620,13 +2632,21 @@
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
-      <c r="J5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
           <t>5A (1h)</t>
@@ -2634,17 +2654,17 @@
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -2656,23 +2676,27 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
+          <t>1A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
           <t>1B (1h 30m)</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>2A (1h 30m)</t>
+          <t>2A (3h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2B (2h 30m)</t>
+          <t>2B (3h 30m)</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -2686,31 +2710,35 @@
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr"/>
-      <c r="J6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr"/>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>BUCO (2h)</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -2722,32 +2750,32 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr"/>
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr"/>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr"/>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr"/>
@@ -2760,51 +2788,47 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1B (1h)</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
@@ -2812,7 +2836,11 @@
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2822,23 +2850,23 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>1A</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2848,37 +2876,41 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr"/>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2A (2h)</t>
-        </is>
-      </c>
+          <t>5A (2h)</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>3B (2h)</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr"/>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2888,32 +2920,32 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1A (3h)</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1B (3h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -2923,23 +2955,35 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr"/>
+          <t>4B (3h)</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4A (3h)</t>
+        </is>
+      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr"/>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr"/>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
           <t>3A (1h)</t>
@@ -2954,65 +2998,77 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>BUCO (2h)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (3h)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>2B (2h)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2A (2h)</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2B (3h)</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>COPERTURA (3h)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
           <t>3A (1h)</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -3024,27 +3080,27 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1B (2h 30m)</t>
+          <t>1B (1h 30m)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1A (2h 30m)</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3060,29 +3116,37 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA (2h)</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3160,7 @@
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -3104,14 +3168,10 @@
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+      <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -3121,7 +3181,11 @@
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="P13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3133,27 +3197,27 @@
       <c r="B14" s="3" t="inlineStr"/>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
           <t>3B</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
+      <c r="I14" s="3" t="inlineStr"/>
       <c r="J14" s="3" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3166,23 +3230,23 @@
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr">
         <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>5A (1h)</t>
         </is>
       </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -3192,38 +3256,42 @@
           <t>MER2</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>3A (2h)</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
           <t>4A</t>
@@ -3236,23 +3304,23 @@
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -3264,42 +3332,42 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>1B (2h)</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>1A (3h)</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA (2h)</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>2A (2h)</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
           <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4B (3h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -3308,21 +3376,25 @@
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3334,42 +3406,42 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -3380,15 +3452,19 @@
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -3400,42 +3476,42 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>1A (1h 30m)</t>
+          <t>1A (2h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1B (1h 30m)</t>
+          <t>1B (2h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2B (3h 30m)</t>
+          <t>2B (1h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>2A (3h 30m)</t>
+          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>3A (1h 30m)</t>
+          <t>3B (2h 30m)</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3B (1h 30m)</t>
+          <t>3A (3h 30m)</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -3446,17 +3522,17 @@
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3468,7 +3544,7 @@
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
@@ -3477,7 +3553,7 @@
       <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>4A (3h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -3488,12 +3564,12 @@
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>5B (2h)</t>
-        </is>
-      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>5A (3h)</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr"/>
       <c r="P19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3504,25 +3580,25 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr"/>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr"/>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
@@ -3532,7 +3608,7 @@
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -3549,12 +3625,12 @@
       <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -3566,10 +3642,14 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr"/>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>1A (2h)</t>
+        </is>
+      </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3577,18 +3657,18 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>3B (2h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
@@ -3598,7 +3678,7 @@
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
@@ -3608,19 +3688,23 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
           <t>3A (1h)</t>
-        </is>
-      </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
         </is>
       </c>
     </row>
@@ -3632,10 +3716,14 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>BUCO (1h)</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
           <t>1B</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr"/>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>5B (3h)</t>
@@ -3643,28 +3731,32 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr"/>
+          <t>2B (2h)</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>BUCO (2h)</t>
         </is>
       </c>
       <c r="K22" s="4" t="inlineStr">
@@ -3674,19 +3766,23 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>BUCO</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
           <t>4B (1h)</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -3698,12 +3794,12 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>1B (3h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -3713,27 +3809,27 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>3B (3h)</t>
         </is>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -3746,17 +3842,25 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>BUCO (3h)</t>
+        </is>
+      </c>
       <c r="M23" s="4" t="inlineStr"/>
       <c r="N23" s="4" t="inlineStr">
         <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="O23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -3768,65 +3872,69 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>1B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (0h 30m)</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2A (2h 30m)</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
           <t>1A (1h 30m)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>1B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2A (2h 30m)</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2B (2h 30m)</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>3A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA (2h)</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr"/>
       <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3955,12 @@
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>4B (3h)</t>
-        </is>
-      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>4A (3h)</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="4" t="inlineStr">
         <is>
           <t>5B (3h)</t>
@@ -3860,12 +3968,12 @@
       </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr">
-        <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="O25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="P25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3874,19 +3982,11 @@
           <t>VEN1</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+      <c r="B26" s="5" t="inlineStr"/>
+      <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -3895,38 +3995,46 @@
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
-      <c r="G26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
       <c r="P26" s="5" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -3938,58 +4046,66 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr">
+        <is>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="J27" s="5" t="inlineStr"/>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
           <t>2A (1h)</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr"/>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K27" s="5" t="inlineStr"/>
-      <c r="L27" s="5" t="inlineStr"/>
       <c r="M27" s="5" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr"/>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
       <c r="P27" s="5" t="inlineStr">
         <is>
           <t>4B (1h)</t>
@@ -4004,29 +4120,37 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr"/>
-      <c r="E28" s="5" t="inlineStr"/>
+          <t>1B (2h)</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (3h)</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>3A (3h)</t>
+          <t>3B (3h)</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
@@ -4036,29 +4160,37 @@
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>4A (3h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr"/>
-      <c r="M28" s="5" t="inlineStr"/>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>BUCO</t>
+        </is>
+      </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O28" s="5" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>BUCO (2h)</t>
         </is>
       </c>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
     </row>
@@ -4070,11 +4202,19 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr"/>
-      <c r="D29" s="5" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
@@ -4083,38 +4223,42 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>BUCO (1h)</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA (3h)</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr"/>
+          <t>BUCO (2h)</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr">
+        <is>
+          <t>BUCO (3h)</t>
+        </is>
+      </c>
       <c r="N29" s="5" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="O29" s="5" t="inlineStr">
@@ -4124,7 +4268,7 @@
       </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4280,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr"/>
@@ -4144,32 +4288,28 @@
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>2A (3h)</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="inlineStr">
         <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
           <t>4A (1h)</t>
         </is>
       </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>4B (2h)</t>
-        </is>
-      </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
@@ -4177,20 +4317,24 @@
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="M30" s="5" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>5A (1h)</t>
+        </is>
+      </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="P30" s="5" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>

--- a/orario_settimanale.xlsx
+++ b/orario_settimanale.xlsx
@@ -527,27 +527,27 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>RUSSO (1h)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>MARANGI (1h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -585,34 +585,34 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>ANGELINI (2h)</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>RUSSO (1h)</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>CICCIMARRA (1h)</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>SCHIAVONE (1h)</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>SABATELLI (2h)</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>MARANGI (2h)</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
           <t>MOTORIA (1h)</t>
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h) PALMISANO (1h)</t>
+          <t>SABATELLI (1h) RUSSO (1h)</t>
         </is>
       </c>
     </row>
@@ -647,57 +647,57 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SCHIAVONE</t>
-        </is>
-      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
           <t>CARDONE</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>ZIZZI (3h)</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>MOTORIA (1h)</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>ZIZZI (3h)</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>OSTUNI (1h)</t>
-        </is>
-      </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>RUSSO (1h) MARANGI (0h 30m)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
     </row>
@@ -709,44 +709,44 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
+          <t>SIMEONE (1h)</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>MARANGI (2h)</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
           <t>CARDONE (2h)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>SIMEONE (1h)</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>MOTORIA (1h)</t>
@@ -759,7 +759,7 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
     </row>
@@ -776,42 +776,42 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>RUSSO (1h 30m)</t>
+          <t>RUSSO (3h 30m)</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>SABATELLI (3h 30m)</t>
+          <t>SABATELLI (1h 30m)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>SCHIAVONE (3h 30m)</t>
+          <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
+          <t>MARANGI (1h 30m)</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>SIMEONE (1h 30m)</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>MARANGI (1h 30m)</t>
-        </is>
-      </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>OSTUNI (1h)</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr"/>
@@ -882,37 +882,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>SABATELLI (1h)</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI (1h)</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
@@ -930,32 +930,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>SCHIAVONE</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>LEO (1h)</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>SCHIAVONE (1h)</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>SIMEONE (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>ZIZZI (2h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>ZIZZI</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SABATELLI</t>
         </is>
       </c>
     </row>
@@ -987,57 +987,57 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SCHIAVONE (2h)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>SAVINO (1h)</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>CARDONE</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>PEPE (2h)</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>OSTUNI (3h)</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>ZIZZI (3h)</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>SABATELLI</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>SAVINO (1h)</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO (3h)</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>PEPE (3h)</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>RUSSO (3h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>SABATELLI (2h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1079,27 +1079,27 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>SABATELLI (3h)</t>
         </is>
       </c>
     </row>
@@ -1111,14 +1111,14 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
+          <t>RUSSO (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
           <t>CICCIMARRA (1h 30m)</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h 30m)</t>
-        </is>
-      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>SABATELLI (1h 30m)</t>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h 30m)</t>
+          <t>SCHIAVONE (2h 30m)</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1141,27 +1141,27 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>LEO (1h)</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>OSTUNI</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>CARDONE (1h) PALMISANO (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>MOTORIA (1h)</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>ZIZZI (3h)</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>OSTUNI (3h)</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>ZIZZI (2h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
@@ -1207,52 +1207,52 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>SABATELLI</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h)</t>
-        </is>
-      </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE (1h)</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>ZIZZI (1h)</t>
+          <t>CARDONE (1h)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1265,57 +1265,57 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
+          <t>SCHIAVONE (1h)</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
-        </is>
-      </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (2h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>CARDONE (2h)</t>
-        </is>
-      </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
           <t>ZIZZI (1h)</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>LEO</t>
-        </is>
-      </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CARDONE</t>
         </is>
       </c>
     </row>
@@ -1327,57 +1327,57 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (3h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI (2h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
+          <t>PEPE (3h)</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
           <t>PALMISANO (3h)</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (1h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>LEO (2h)</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (2h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
     </row>
@@ -1389,22 +1389,22 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1424,22 +1424,22 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>OSTUNI (3h)</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PALMISANO (1h)</t>
         </is>
       </c>
     </row>
@@ -1451,27 +1451,27 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ANGELINI (2h 30m)</t>
+          <t>ANGELINI (1h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>RUSSO (2h 30m)</t>
+          <t>RUSSO (1h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>SCHIAVONE (1h 30m)</t>
+          <t>SCHIAVONE (3h 30m)</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>SABATELLI (1h 30m)</t>
+          <t>SABATELLI (3h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>SIMEONE (3h 30m)</t>
+          <t>SIMEONE (2h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -1481,17 +1481,17 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>PEPE (2h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       <c r="G19" s="3" t="inlineStr"/>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>PALMISANO (2h)</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>PALMISANO (3h)</t>
+          <t>PEPE (3h)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>CARDONE (3h)</t>
+          <t>LEO (2h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>OSTUNI (3h)</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr"/>
@@ -1547,17 +1547,17 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (1h)</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
@@ -1567,22 +1567,22 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (1h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1605,17 +1605,17 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>LEO (1h)</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>ANGELINI</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
@@ -1625,24 +1625,24 @@
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO (2h)</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>SIMEONE</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>CARDONE</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr">
-        <is>
-          <t>PEPE (2h)</t>
-        </is>
-      </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
           <t>ZIZZI</t>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1667,42 +1667,42 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>RUSSO</t>
+          <t>ANGELINI (2h)</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>SABATELLI (2h)</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h)</t>
+          <t>SCHIAVONE</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE (3h)</t>
         </is>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>CARDONE (2h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="L22" s="4" t="inlineStr">
         <is>
-          <t>PEPE (1h)</t>
+          <t>PEPE</t>
         </is>
       </c>
     </row>
@@ -1729,57 +1729,57 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>ANGELINI (1h)</t>
+          <t>CICCIMARRA (1h)</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>RUSSO (1h)</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE</t>
+          <t>SABATELLI (1h)</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
+          <t>SCHIAVONE (3h)</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>MARANGI (2h)</t>
-        </is>
-      </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (3h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H23" s="4" t="inlineStr">
         <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>PALMISANO (2h)</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>OSTUNI</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>ZIZZI</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
           <t>PEPE</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>PALMISANO</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>SABATELLI (1h) CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
+          <t>RUSSO (1h 30m)</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
           <t>CICCIMARRA (1h 30m)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>ANGELINI (1h 30m)</t>
-        </is>
-      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>SCHIAVONE (2h 30m)</t>
+          <t>SCHIAVONE (1h 30m)</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
@@ -1811,22 +1811,22 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>SIMEONE (1h 30m)</t>
+          <t>MARANGI (1h 30m)</t>
         </is>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>MARANGI (1h 30m)</t>
+          <t>SIMEONE (2h 30m)</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>PALMISANO (2h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L24" s="4" t="inlineStr">
         <is>
-          <t>SAVINO (1h) RUSSO (0h 30m)</t>
+          <t>PEPE (4h)</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>PEPE (3h)</t>
+          <t>PEPE (1h)</t>
         </is>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CARDONE (2h)</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -1887,19 +1887,19 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
+          <t>ANGELINI</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>RUSSO</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>CICCIMARRA (1h)</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>LEO (1h)</t>
-        </is>
-      </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
           <t>SABATELLI (1h)</t>
@@ -1907,12 +1907,12 @@
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
@@ -1922,17 +1922,17 @@
       </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>OSTUNI (1h)</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
           <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI</t>
-        </is>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>SABATELLI</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1965,12 +1965,12 @@
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>MARANGI</t>
+          <t>SIMEONE (2h)</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
@@ -1980,22 +1980,22 @@
       </c>
       <c r="I27" s="5" t="inlineStr">
         <is>
-          <t>SAVINO (1h)</t>
+          <t>PALMISANO</t>
         </is>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI (2h)</t>
+          <t>MOTORIA (1h)</t>
         </is>
       </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>OSTUNI</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>MARANGI (1h)</t>
         </is>
       </c>
     </row>
@@ -2007,17 +2007,17 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>ANGELINI (2h)</t>
+          <t>ANGELINI (3h)</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>RUSSO (2h)</t>
+          <t>RUSSO (3h)</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>SABATELLI (1h)</t>
+          <t>SABATELLI (2h)</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -2027,32 +2027,32 @@
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>MARANGI (3h)</t>
+          <t>MARANGI</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE (3h)</t>
+          <t>SIMEONE</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>CARDONE</t>
+          <t>SAVINO (1h)</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
         <is>
-          <t>PALMISANO</t>
+          <t>PALMISANO (3h)</t>
         </is>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI</t>
+          <t>ZIZZI (1h)</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>ZIZZI</t>
+          <t>OSTUNI (2h)</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>RUSSO (1h)</t>
+          <t>RUSSO</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
@@ -2084,32 +2084,32 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>CICCIMARRA</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>SIMEONE (1h)</t>
+          <t>MARANGI (2h)</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr">
+        <is>
           <t>SAVINO (1h)</t>
         </is>
       </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE (2h)</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO (2h)</t>
-        </is>
-      </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>OSTUNI (2h)</t>
+          <t>CARDONE</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>LEO (1h)</t>
+          <t>RUSSO (2h)</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>CICCIMARRA (1h)</t>
+          <t>CICCIMARRA (2h)</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -2156,32 +2156,32 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
+          <t>SIMEONE (3h)</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>PALMISANO (2h)</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>PEPE (1h)</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>CARDONE (2h)</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>ZIZZI (2h)</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
           <t>MARANGI (1h)</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>PALMISANO (1h)</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>PEPE (1h)</t>
-        </is>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>MOTORIA (1h)</t>
-        </is>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>ZIZZI (3h)</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>CARDONE (1h)</t>
         </is>
       </c>
     </row>
@@ -2388,20 +2388,24 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr"/>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1A (1h)</t>
+        </is>
+      </c>
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr"/>
@@ -2410,22 +2414,18 @@
           <t>4A (1h)</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr">
         <is>
           <t>5B</t>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -2450,28 +2450,28 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>2B (2h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr"/>
@@ -2480,11 +2480,7 @@
           <t>4B (1h)</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
+      <c r="J3" s="1" t="inlineStr"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>5A</t>
@@ -2492,7 +2488,7 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
@@ -2507,12 +2503,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -2524,32 +2520,28 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr"/>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>2A</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr"/>
@@ -2566,27 +2558,27 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>BUCO (2h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -2598,43 +2590,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B (2h)</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>3B (2h)</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr"/>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -2642,11 +2630,7 @@
           <t>5B</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
+      <c r="L5" s="1" t="inlineStr"/>
       <c r="M5" s="1" t="inlineStr">
         <is>
           <t>5A (1h)</t>
@@ -2654,19 +2638,15 @@
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>4B (2h)</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2681,66 +2661,58 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>1B (1h 30m)</t>
+          <t>1B (3h 30m)</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>2A (3h 30m)</t>
+          <t>2A (1h 30m)</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>2B (3h 30m)</t>
+          <t>2B (1h 30m)</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>3A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
           <t>3B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>3A (1h 30m)</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr">
         <is>
+          <t>4A (3h)</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>5B (2h)</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr"/>
+      <c r="M6" s="1" t="inlineStr"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>5B (2h)</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr"/>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2752,7 +2724,7 @@
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>5A (2h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
@@ -2760,17 +2732,17 @@
       <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
-      <c r="J7" s="1" t="inlineStr"/>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr"/>
-      <c r="M7" s="1" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+      <c r="M7" s="1" t="inlineStr"/>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
@@ -2798,42 +2770,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2B (1h)</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -2850,7 +2822,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -2860,55 +2832,51 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr"/>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3A (2h)</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>2B (1h)</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3A (1h)</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -2920,34 +2888,30 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA</t>
-        </is>
-      </c>
+          <t>2A (2h)</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3B</t>
@@ -2955,38 +2919,30 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4B (3h)</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4A (3h)</t>
-        </is>
-      </c>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
+          <t>5B (3h)</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -2996,74 +2952,62 @@
           <t>MAR4</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
+      <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1A (3h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>COPERTURA (3h)</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3B (2h)</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4B (1h)</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2B (2h)</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2A (2h)</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>COPERTURA (3h)</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3B (2h)</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr"/>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -3078,19 +3022,15 @@
           <t>MAR5</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>1B (1h 30m)</t>
-        </is>
-      </c>
+      <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -3100,7 +3040,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2B (1h 30m)</t>
+          <t>2B (2h 30m)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3116,37 +3056,33 @@
       <c r="I12" s="2" t="inlineStr"/>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>1B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3096,7 @@
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5A (3h)</t>
+          <t>5B (3h)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -3168,18 +3104,18 @@
       <c r="G13" s="2" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4A (1h)</t>
+        </is>
+      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
+      <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
@@ -3194,59 +3130,59 @@
           <t>MER1</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr"/>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>1A</t>
         </is>
       </c>
+      <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B (1h)</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr"/>
+          <t>3A (1h)</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>4A</t>
+        </is>
+      </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>5B (1h)</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>2B (1h)</t>
         </is>
       </c>
     </row>
@@ -3258,69 +3194,65 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>1A (2h)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B (1h)</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>3A (2h)</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>3B (2h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
+          <t>5B (1h)</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -3332,69 +3264,65 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>1A (3h)</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>5A (1h)</t>
+          <t>5A</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>2A (2h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (0h 30m)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>3A</t>
+          <t>3B (2h)</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>4A (3h)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>4A (3h)</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
+      <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>COPERTURA (2h)</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>COPERTURA (0h 30m)</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3334,27 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>1B (2h)</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1A (2h)</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (3h)</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -3441,25 +3369,21 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>COPERTURA (1h)</t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
+      <c r="N17" s="3" t="inlineStr"/>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
@@ -3476,12 +3400,12 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>1A (2h 30m)</t>
+          <t>1A (1h 30m)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>1B (2h 30m)</t>
+          <t>1B (1h 30m)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -3491,12 +3415,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>2B (1h 30m)</t>
+          <t>2B (3h 30m)</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>2A (1h 30m)</t>
+          <t>2A (3h 30m)</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -3506,33 +3430,33 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>3A (3h 30m)</t>
+          <t>3A (2h 30m)</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>COPERTURA (2h)</t>
+          <t>4B</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K18" s="3" t="inlineStr"/>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>5A</t>
         </is>
       </c>
-      <c r="O18" s="3" t="inlineStr">
-        <is>
-          <t>4A (1h)</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3544,7 +3468,7 @@
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
@@ -3553,23 +3477,23 @@
       <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>4B (3h)</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>5A (3h)</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>5A (2h)</t>
+        </is>
+      </c>
       <c r="P19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3580,14 +3504,10 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
+          <t>1A (1h)</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr"/>
       <c r="D20" s="4" t="inlineStr">
         <is>
           <t>5B</t>
@@ -3598,17 +3518,17 @@
       <c r="G20" s="4" t="inlineStr"/>
       <c r="H20" s="4" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (1h)</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K20" s="4" t="inlineStr">
@@ -3622,15 +3542,19 @@
         </is>
       </c>
       <c r="M20" s="4" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>2A (1h)</t>
         </is>
       </c>
       <c r="P20" s="4" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>1B (1h)</t>
         </is>
       </c>
     </row>
@@ -3642,24 +3566,16 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>1A (2h)</t>
-        </is>
-      </c>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr">
         <is>
           <t>5B</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
+      <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr">
         <is>
           <t>2B</t>
@@ -3668,17 +3584,17 @@
       <c r="G21" s="4" t="inlineStr"/>
       <c r="H21" s="4" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>COPERTURA</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="K21" s="4" t="inlineStr">
@@ -3688,23 +3604,23 @@
       </c>
       <c r="L21" s="4" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr">
         <is>
-          <t>4A</t>
+          <t>3B (2h)</t>
         </is>
       </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
-          <t>1B (1h)</t>
+          <t>1A (1h)</t>
         </is>
       </c>
       <c r="P21" s="4" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3716,73 +3632,61 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>1B</t>
-        </is>
-      </c>
+          <t>1B (2h)</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>5B (3h)</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>3A (3h)</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>5A (3h)</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
         <is>
           <t>2A (2h)</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>2B (2h)</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>5A (3h)</t>
-        </is>
-      </c>
-      <c r="L22" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
         </is>
       </c>
       <c r="M22" s="4" t="inlineStr"/>
       <c r="N22" s="4" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="O22" s="4" t="inlineStr">
+          <t>4A</t>
+        </is>
+      </c>
+      <c r="O22" s="4" t="inlineStr"/>
+      <c r="P22" s="4" t="inlineStr">
         <is>
           <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -3792,75 +3696,67 @@
           <t>GIO4</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>1B (1h)</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2A (1h)</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>2B (3h)</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
         <is>
           <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>1B (2h)</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>2A</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>3A (2h)</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>3B (3h)</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>4B</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO (3h)</t>
         </is>
       </c>
       <c r="M23" s="4" t="inlineStr"/>
       <c r="N23" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O23" s="4" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+          <t>4A (2h)</t>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr"/>
       <c r="P23" s="4" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
+          <t>3A (1h)</t>
         </is>
       </c>
     </row>
@@ -3870,71 +3766,67 @@
           <t>GIO5</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>1A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2B (1h 30m)</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>2A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>3A (1h 30m)</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>3B (2h 30m)</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (4h)</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>COPERTURA (0h 30m)</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>5B</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
         <is>
           <t>1B (1h 30m)</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>COPERTURA (0h 30m)</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>2A (2h 30m)</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>3B (1h 30m)</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>3A (1h 30m)</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>4B (2h)</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L24" s="4" t="inlineStr">
-        <is>
-          <t>1A (1h 30m)</t>
-        </is>
-      </c>
       <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr">
-        <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr"/>
       <c r="P24" s="4" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3849,7 @@
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>4A (3h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr"/>
@@ -3968,12 +3860,12 @@
       </c>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr">
-        <is>
-          <t>4B (1h)</t>
-        </is>
-      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>4B (2h)</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3982,11 +3874,19 @@
           <t>VEN1</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr"/>
-      <c r="C26" s="5" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -3997,44 +3897,36 @@
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr">
         <is>
+          <t>3B (1h)</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
           <t>3A</t>
         </is>
       </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
       <c r="I26" s="5" t="inlineStr">
         <is>
           <t>4A</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr"/>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>5A</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>1B (1h)</t>
-        </is>
-      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>5B (1h)</t>
         </is>
       </c>
       <c r="N26" s="5" t="inlineStr"/>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>2A (1h)</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
         </is>
       </c>
     </row>
@@ -4056,27 +3948,27 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>5B (2h)</t>
+          <t>5B</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
           <t>COPERTURA (1h)</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>3A</t>
-        </is>
-      </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>3B</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="I27" s="5" t="inlineStr">
@@ -4084,31 +3976,23 @@
           <t>4A (2h)</t>
         </is>
       </c>
-      <c r="J27" s="5" t="inlineStr"/>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>2A (1h)</t>
-        </is>
-      </c>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>4B</t>
+        </is>
+      </c>
+      <c r="K27" s="5" t="inlineStr"/>
+      <c r="L27" s="5" t="inlineStr"/>
       <c r="M27" s="5" t="inlineStr">
         <is>
-          <t>BUCO</t>
+          <t>5A (1h)</t>
         </is>
       </c>
       <c r="N27" s="5" t="inlineStr"/>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
+      <c r="O27" s="5" t="inlineStr"/>
       <c r="P27" s="5" t="inlineStr">
         <is>
-          <t>4B (1h)</t>
+          <t>3B (1h)</t>
         </is>
       </c>
     </row>
@@ -4120,22 +4004,22 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>1A (2h)</t>
+          <t>1A (3h)</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>1B (2h)</t>
+          <t>1B (3h)</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>5A</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>2A (1h)</t>
+          <t>2A (2h)</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
@@ -4145,12 +4029,12 @@
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>3A (3h)</t>
+          <t>3A</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>3B (3h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I28" s="5" t="inlineStr">
@@ -4160,37 +4044,21 @@
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>4B</t>
+          <t>4B (3h)</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>5B</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO</t>
-        </is>
-      </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>4A</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
+          <t>5A (1h)</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr"/>
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr"/>
       <c r="P28" s="5" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>4A (1h)</t>
         </is>
       </c>
     </row>
@@ -4207,14 +4075,10 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>5A (2h)</t>
-        </is>
-      </c>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="inlineStr"/>
       <c r="F29" s="5" t="inlineStr">
         <is>
@@ -4223,12 +4087,12 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>BUCO (1h)</t>
+          <t>3A (2h)</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>3A (1h)</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="I29" s="5" t="inlineStr">
@@ -4238,7 +4102,7 @@
       </c>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>4B (2h)</t>
+          <t>4A</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
@@ -4248,27 +4112,19 @@
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>BUCO (2h)</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>BUCO (3h)</t>
-        </is>
-      </c>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="M29" s="5" t="inlineStr"/>
       <c r="N29" s="5" t="inlineStr">
         <is>
-          <t>4A (2h)</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
+          <t>5A</t>
+        </is>
+      </c>
+      <c r="O29" s="5" t="inlineStr"/>
       <c r="P29" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
+          <t>4B (1h)</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4139,11 @@
           <t>1B (2h)</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>1A (2h)</t>
+        </is>
+      </c>
       <c r="D30" s="5" t="inlineStr"/>
       <c r="E30" s="5" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
@@ -4293,10 +4153,14 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>3B (1h)</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr"/>
+          <t>COPERTURA (1h)</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>3B (3h)</t>
+        </is>
+      </c>
       <c r="I30" s="5" t="inlineStr">
         <is>
           <t>4B (1h)</t>
@@ -4304,34 +4168,26 @@
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>4A (1h)</t>
+          <t>4A (2h)</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>5B (3h)</t>
+          <t>5B (2h)</t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>2B (1h)</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>5A (1h)</t>
-        </is>
-      </c>
+          <t>2B (2h)</t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="inlineStr"/>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>COPERTURA (1h)</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>1A (1h)</t>
-        </is>
-      </c>
+          <t>5A (2h)</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr"/>
       <c r="P30" s="5" t="inlineStr">
         <is>
           <t>3A (1h)</t>
